--- a/java/propeties File/Project.xlsx
+++ b/java/propeties File/Project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9798f50373434cb/Desktop/selenium/java/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9798f50373434cb/Desktop/selenium/java/propeties File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{913A2295-BAFB-4045-8FC8-474CD13B35EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DF99021-8F3E-4629-B0F8-C0C557E558B3}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{913A2295-BAFB-4045-8FC8-474CD13B35EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5994D133-F186-4CE9-9EAE-B4817EA7F849}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C414F96-F8A5-4AB9-BC33-1A5555DB00F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="165">
   <si>
     <t>Sr No</t>
   </si>
@@ -1179,9 +1179,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD6F762B-FC6C-466F-B442-CE4C684BB0EC}" name="Table4" displayName="Table4" ref="A6:J482" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
-  <autoFilter ref="A6:J482" xr:uid="{AD6F762B-FC6C-466F-B442-CE4C684BB0EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD6F762B-FC6C-466F-B442-CE4C684BB0EC}" name="Table4" displayName="Table4" ref="A6:J188" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
+  <autoFilter ref="A6:J188" xr:uid="{AD6F762B-FC6C-466F-B442-CE4C684BB0EC}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{211BE520-39DA-4E05-9293-4FCE0DD03282}" name="Sr No" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{EF17DDB5-B7FF-482F-A247-AF978F484A2E}" name="Test Scenarios" dataDxfId="8"/>
@@ -1495,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E039C1DE-AAE8-4DD0-96B4-E0A4948514DD}">
-  <dimension ref="A4:J482"/>
+  <dimension ref="A4:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E47" zoomScale="116" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2825,7 +2829,7 @@
       <c r="A66" s="23">
         <v>3</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C66" s="10" t="s">
@@ -2846,10 +2850,10 @@
       <c r="H66" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="J66" s="26"/>
+      <c r="I66" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J66" s="23"/>
     </row>
     <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="26"/>
@@ -2870,10 +2874,10 @@
       <c r="H67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I67" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="J67" s="26"/>
+      <c r="I67" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J67" s="23"/>
     </row>
     <row r="68" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="26"/>
@@ -2894,15 +2898,15 @@
       <c r="H68" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="J68" s="26"/>
+      <c r="I68" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J68" s="23"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="26"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="10">
         <v>4</v>
       </c>
@@ -2918,15 +2922,15 @@
       <c r="H69" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="I69" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="J69" s="26"/>
+      <c r="I69" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J69" s="23"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="26"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="10">
         <v>5</v>
       </c>
@@ -2942,15 +2946,15 @@
       <c r="H70" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I70" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="J70" s="26"/>
+      <c r="I70" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J70" s="23"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="26"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="10">
         <v>6</v>
       </c>
@@ -2966,15 +2970,15 @@
       <c r="H71" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I71" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="J71" s="26"/>
+      <c r="I71" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J71" s="23"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="26"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="10">
         <v>7</v>
       </c>
@@ -2990,15 +2994,15 @@
       <c r="H72" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I72" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="J72" s="26"/>
+      <c r="I72" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J72" s="23"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="26"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="10">
         <v>8</v>
       </c>
@@ -3014,15 +3018,15 @@
       <c r="H73" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="I73" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="J73" s="26"/>
+      <c r="I73" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J73" s="23"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="26"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
       <c r="D74" s="10">
         <v>9</v>
       </c>
@@ -3038,46 +3042,46 @@
       <c r="H74" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="I74" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="J74" s="26"/>
+      <c r="I74" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J74" s="23"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="26"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
       <c r="D75" s="23"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="26"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="23"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="26"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="23"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="26"/>
@@ -3475,8 +3479,12 @@
       <c r="G109" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H109" s="7"/>
-      <c r="I109" s="15"/>
+      <c r="H109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="J109" s="15"/>
     </row>
     <row r="110" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3495,8 +3503,12 @@
       <c r="G110" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H110" s="7"/>
-      <c r="I110" s="10"/>
+      <c r="H110" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J110" s="10"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -3515,8 +3527,12 @@
       <c r="G111" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H111" s="16"/>
-      <c r="I111" s="10"/>
+      <c r="H111" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J111" s="10"/>
     </row>
     <row r="112" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3535,8 +3551,12 @@
       <c r="G112" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H112" s="16"/>
-      <c r="I112" s="10"/>
+      <c r="H112" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J112" s="10"/>
     </row>
     <row r="113" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3555,8 +3575,12 @@
       <c r="G113" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H113" s="16"/>
-      <c r="I113" s="10"/>
+      <c r="H113" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="J113" s="10"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -3579,7 +3603,7 @@
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
-      <c r="H115" s="16"/>
+      <c r="H115" s="7"/>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
     </row>
@@ -3605,8 +3629,12 @@
       <c r="G116" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H116" s="7"/>
-      <c r="I116" s="10"/>
+      <c r="H116" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="J116" s="10"/>
     </row>
     <row r="117" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3625,8 +3653,12 @@
       <c r="G117" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H117" s="16"/>
-      <c r="I117" s="10"/>
+      <c r="H117" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="J117" s="10"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -3645,8 +3677,12 @@
       <c r="G118" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H118" s="16"/>
-      <c r="I118" s="10"/>
+      <c r="H118" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="J118" s="10"/>
     </row>
     <row r="119" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3665,8 +3701,12 @@
       <c r="G119" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
+      <c r="H119" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="J119" s="10"/>
     </row>
     <row r="120" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3685,8 +3725,12 @@
       <c r="G120" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
+      <c r="H120" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="J120" s="10"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -3723,8 +3767,12 @@
       <c r="G122" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
+      <c r="H122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="J122" s="10"/>
     </row>
     <row r="123" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3743,8 +3791,12 @@
       <c r="G123" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
+      <c r="H123" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="J123" s="10"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -3763,8 +3815,12 @@
       <c r="G124" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
+      <c r="H124" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="J124" s="10"/>
     </row>
     <row r="125" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3783,8 +3839,12 @@
       <c r="G125" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
+      <c r="H125" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J125" s="10"/>
     </row>
     <row r="126" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3803,8 +3863,12 @@
       <c r="G126" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
+      <c r="H126" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J126" s="10"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -3867,8 +3931,12 @@
       <c r="G130" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
+      <c r="H130" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J130" s="10"/>
     </row>
     <row r="131" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3887,8 +3955,12 @@
       <c r="G131" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
+      <c r="H131" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I131" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J131" s="10"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -3907,8 +3979,12 @@
       <c r="G132" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
+      <c r="H132" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J132" s="10"/>
     </row>
     <row r="133" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3927,8 +4003,12 @@
       <c r="G133" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
+      <c r="H133" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I133" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J133" s="10"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -3947,8 +4027,12 @@
       <c r="G134" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
+      <c r="H134" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J134" s="10"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -3965,8 +4049,12 @@
       <c r="G135" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
+      <c r="H135" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="J135" s="4"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -3985,8 +4073,12 @@
       <c r="G136" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
+      <c r="H136" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J136" s="10"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -4005,8 +4097,12 @@
       <c r="G137" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
+      <c r="H137" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J137" s="10"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -4055,8 +4151,12 @@
       <c r="G140" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
+      <c r="H140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J140" s="10"/>
     </row>
     <row r="141" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4075,8 +4175,12 @@
       <c r="G141" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
+      <c r="H141" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I141" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J141" s="10"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -4095,8 +4199,12 @@
       <c r="G142" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
+      <c r="H142" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J142" s="10"/>
     </row>
     <row r="143" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4115,8 +4223,12 @@
       <c r="G143" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
+      <c r="H143" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I143" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="J143" s="15"/>
     </row>
     <row r="144" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4135,8 +4247,12 @@
       <c r="G144" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
+      <c r="H144" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J144" s="10"/>
     </row>
     <row r="145" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4155,8 +4271,12 @@
       <c r="G145" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
+      <c r="H145" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I145" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J145" s="10"/>
     </row>
     <row r="146" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4175,8 +4295,12 @@
       <c r="G146" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
+      <c r="H146" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I146" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J146" s="10"/>
     </row>
     <row r="147" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4195,8 +4319,12 @@
       <c r="G147" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
+      <c r="H147" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I147" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J147" s="10"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -4215,8 +4343,12 @@
       <c r="G148" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H148" s="10"/>
-      <c r="I148" s="10"/>
+      <c r="H148" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I148" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="J148" s="10"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -4992,3534 +5124,6 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" s="10"/>
-      <c r="B189" s="10"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
-      <c r="H189" s="10"/>
-      <c r="I189" s="10"/>
-      <c r="J189" s="10"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A190" s="10"/>
-      <c r="B190" s="10"/>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
-      <c r="H190" s="10"/>
-      <c r="I190" s="10"/>
-      <c r="J190" s="10"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" s="10"/>
-      <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
-      <c r="H191" s="10"/>
-      <c r="I191" s="10"/>
-      <c r="J191" s="10"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A192" s="10"/>
-      <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-      <c r="H192" s="10"/>
-      <c r="I192" s="10"/>
-      <c r="J192" s="10"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="10"/>
-      <c r="B193" s="10"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
-      <c r="H193" s="10"/>
-      <c r="I193" s="10"/>
-      <c r="J193" s="10"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A194" s="10"/>
-      <c r="B194" s="10"/>
-      <c r="C194" s="10"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A195" s="10"/>
-      <c r="B195" s="10"/>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
-      <c r="H195" s="10"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A196" s="10"/>
-      <c r="B196" s="10"/>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-      <c r="H196" s="10"/>
-      <c r="I196" s="10"/>
-      <c r="J196" s="10"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A197" s="10"/>
-      <c r="B197" s="10"/>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
-      <c r="H197" s="10"/>
-      <c r="I197" s="10"/>
-      <c r="J197" s="10"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="10"/>
-      <c r="B198" s="10"/>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-      <c r="H198" s="10"/>
-      <c r="I198" s="10"/>
-      <c r="J198" s="10"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A199" s="10"/>
-      <c r="B199" s="10"/>
-      <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
-      <c r="H199" s="10"/>
-      <c r="I199" s="10"/>
-      <c r="J199" s="10"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="10"/>
-      <c r="B200" s="10"/>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-      <c r="H200" s="10"/>
-      <c r="I200" s="10"/>
-      <c r="J200" s="10"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A201" s="10"/>
-      <c r="B201" s="10"/>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A202" s="10"/>
-      <c r="B202" s="10"/>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
-      <c r="H202" s="10"/>
-      <c r="I202" s="10"/>
-      <c r="J202" s="10"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A203" s="10"/>
-      <c r="B203" s="10"/>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
-      <c r="H203" s="10"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="10"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A204" s="10"/>
-      <c r="B204" s="10"/>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-      <c r="H204" s="10"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A205" s="10"/>
-      <c r="B205" s="10"/>
-      <c r="C205" s="10"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-      <c r="H205" s="10"/>
-      <c r="I205" s="10"/>
-      <c r="J205" s="10"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A206" s="10"/>
-      <c r="B206" s="10"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
-      <c r="H206" s="10"/>
-      <c r="I206" s="10"/>
-      <c r="J206" s="10"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A207" s="10"/>
-      <c r="B207" s="10"/>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
-      <c r="H207" s="10"/>
-      <c r="I207" s="10"/>
-      <c r="J207" s="10"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="10"/>
-      <c r="B208" s="10"/>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
-      <c r="H208" s="10"/>
-      <c r="I208" s="10"/>
-      <c r="J208" s="10"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A209" s="10"/>
-      <c r="B209" s="10"/>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
-      <c r="H209" s="10"/>
-      <c r="I209" s="10"/>
-      <c r="J209" s="10"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="10"/>
-      <c r="B210" s="10"/>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
-      <c r="H210" s="10"/>
-      <c r="I210" s="10"/>
-      <c r="J210" s="10"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A211" s="10"/>
-      <c r="B211" s="10"/>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-      <c r="H211" s="10"/>
-      <c r="I211" s="10"/>
-      <c r="J211" s="10"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A212" s="10"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-      <c r="H212" s="10"/>
-      <c r="I212" s="10"/>
-      <c r="J212" s="10"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A213" s="10"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="10"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
-      <c r="H213" s="10"/>
-      <c r="I213" s="10"/>
-      <c r="J213" s="10"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" s="10"/>
-      <c r="B214" s="10"/>
-      <c r="C214" s="10"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
-      <c r="H214" s="10"/>
-      <c r="I214" s="10"/>
-      <c r="J214" s="10"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A215" s="10"/>
-      <c r="B215" s="10"/>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
-      <c r="H215" s="10"/>
-      <c r="I215" s="10"/>
-      <c r="J215" s="10"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A216" s="10"/>
-      <c r="B216" s="10"/>
-      <c r="C216" s="10"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
-      <c r="H216" s="10"/>
-      <c r="I216" s="10"/>
-      <c r="J216" s="10"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A217" s="10"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
-      <c r="H217" s="10"/>
-      <c r="I217" s="10"/>
-      <c r="J217" s="10"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A218" s="10"/>
-      <c r="B218" s="10"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
-      <c r="H218" s="10"/>
-      <c r="I218" s="10"/>
-      <c r="J218" s="10"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A219" s="10"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
-      <c r="H219" s="10"/>
-      <c r="I219" s="10"/>
-      <c r="J219" s="10"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A220" s="10"/>
-      <c r="B220" s="10"/>
-      <c r="C220" s="10"/>
-      <c r="D220" s="10"/>
-      <c r="E220" s="10"/>
-      <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
-      <c r="H220" s="10"/>
-      <c r="I220" s="10"/>
-      <c r="J220" s="10"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A221" s="10"/>
-      <c r="B221" s="10"/>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
-      <c r="E221" s="10"/>
-      <c r="F221" s="10"/>
-      <c r="G221" s="10"/>
-      <c r="H221" s="10"/>
-      <c r="I221" s="10"/>
-      <c r="J221" s="10"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A222" s="10"/>
-      <c r="B222" s="10"/>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="10"/>
-      <c r="F222" s="10"/>
-      <c r="G222" s="10"/>
-      <c r="H222" s="10"/>
-      <c r="I222" s="10"/>
-      <c r="J222" s="10"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A223" s="10"/>
-      <c r="B223" s="10"/>
-      <c r="C223" s="10"/>
-      <c r="D223" s="10"/>
-      <c r="E223" s="10"/>
-      <c r="F223" s="10"/>
-      <c r="G223" s="10"/>
-      <c r="H223" s="10"/>
-      <c r="I223" s="10"/>
-      <c r="J223" s="10"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A224" s="10"/>
-      <c r="B224" s="10"/>
-      <c r="C224" s="10"/>
-      <c r="D224" s="10"/>
-      <c r="E224" s="10"/>
-      <c r="F224" s="10"/>
-      <c r="G224" s="10"/>
-      <c r="H224" s="10"/>
-      <c r="I224" s="10"/>
-      <c r="J224" s="10"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A225" s="10"/>
-      <c r="B225" s="10"/>
-      <c r="C225" s="10"/>
-      <c r="D225" s="10"/>
-      <c r="E225" s="10"/>
-      <c r="F225" s="10"/>
-      <c r="G225" s="10"/>
-      <c r="H225" s="10"/>
-      <c r="I225" s="10"/>
-      <c r="J225" s="10"/>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A226" s="10"/>
-      <c r="B226" s="10"/>
-      <c r="C226" s="10"/>
-      <c r="D226" s="10"/>
-      <c r="E226" s="10"/>
-      <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
-      <c r="H226" s="10"/>
-      <c r="I226" s="10"/>
-      <c r="J226" s="10"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A227" s="10"/>
-      <c r="B227" s="10"/>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
-      <c r="E227" s="10"/>
-      <c r="F227" s="10"/>
-      <c r="G227" s="10"/>
-      <c r="H227" s="10"/>
-      <c r="I227" s="10"/>
-      <c r="J227" s="10"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A228" s="10"/>
-      <c r="B228" s="10"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
-      <c r="E228" s="10"/>
-      <c r="F228" s="10"/>
-      <c r="G228" s="10"/>
-      <c r="H228" s="10"/>
-      <c r="I228" s="10"/>
-      <c r="J228" s="10"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A229" s="10"/>
-      <c r="B229" s="10"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
-      <c r="E229" s="10"/>
-      <c r="F229" s="10"/>
-      <c r="G229" s="10"/>
-      <c r="H229" s="10"/>
-      <c r="I229" s="10"/>
-      <c r="J229" s="10"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A230" s="10"/>
-      <c r="B230" s="10"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="10"/>
-      <c r="E230" s="10"/>
-      <c r="F230" s="10"/>
-      <c r="G230" s="10"/>
-      <c r="H230" s="10"/>
-      <c r="I230" s="10"/>
-      <c r="J230" s="10"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A231" s="10"/>
-      <c r="B231" s="10"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10"/>
-      <c r="E231" s="10"/>
-      <c r="F231" s="10"/>
-      <c r="G231" s="10"/>
-      <c r="H231" s="10"/>
-      <c r="I231" s="10"/>
-      <c r="J231" s="10"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A232" s="10"/>
-      <c r="B232" s="10"/>
-      <c r="C232" s="10"/>
-      <c r="D232" s="10"/>
-      <c r="E232" s="10"/>
-      <c r="F232" s="10"/>
-      <c r="G232" s="10"/>
-      <c r="H232" s="10"/>
-      <c r="I232" s="10"/>
-      <c r="J232" s="10"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A233" s="10"/>
-      <c r="B233" s="10"/>
-      <c r="C233" s="10"/>
-      <c r="D233" s="10"/>
-      <c r="E233" s="10"/>
-      <c r="F233" s="10"/>
-      <c r="G233" s="10"/>
-      <c r="H233" s="10"/>
-      <c r="I233" s="10"/>
-      <c r="J233" s="10"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A234" s="10"/>
-      <c r="B234" s="10"/>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10"/>
-      <c r="E234" s="10"/>
-      <c r="F234" s="10"/>
-      <c r="G234" s="10"/>
-      <c r="H234" s="10"/>
-      <c r="I234" s="10"/>
-      <c r="J234" s="10"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A235" s="10"/>
-      <c r="B235" s="10"/>
-      <c r="C235" s="10"/>
-      <c r="D235" s="10"/>
-      <c r="E235" s="10"/>
-      <c r="F235" s="10"/>
-      <c r="G235" s="10"/>
-      <c r="H235" s="10"/>
-      <c r="I235" s="10"/>
-      <c r="J235" s="10"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A236" s="10"/>
-      <c r="B236" s="10"/>
-      <c r="C236" s="10"/>
-      <c r="D236" s="10"/>
-      <c r="E236" s="10"/>
-      <c r="F236" s="10"/>
-      <c r="G236" s="10"/>
-      <c r="H236" s="10"/>
-      <c r="I236" s="10"/>
-      <c r="J236" s="10"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A237" s="10"/>
-      <c r="B237" s="10"/>
-      <c r="C237" s="10"/>
-      <c r="D237" s="10"/>
-      <c r="E237" s="10"/>
-      <c r="F237" s="10"/>
-      <c r="G237" s="10"/>
-      <c r="H237" s="10"/>
-      <c r="I237" s="10"/>
-      <c r="J237" s="10"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A238" s="10"/>
-      <c r="B238" s="10"/>
-      <c r="C238" s="10"/>
-      <c r="D238" s="10"/>
-      <c r="E238" s="10"/>
-      <c r="F238" s="10"/>
-      <c r="G238" s="10"/>
-      <c r="H238" s="10"/>
-      <c r="I238" s="10"/>
-      <c r="J238" s="10"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A239" s="10"/>
-      <c r="B239" s="10"/>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
-      <c r="E239" s="10"/>
-      <c r="F239" s="10"/>
-      <c r="G239" s="10"/>
-      <c r="H239" s="10"/>
-      <c r="I239" s="10"/>
-      <c r="J239" s="10"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A240" s="10"/>
-      <c r="B240" s="10"/>
-      <c r="C240" s="10"/>
-      <c r="D240" s="10"/>
-      <c r="E240" s="10"/>
-      <c r="F240" s="10"/>
-      <c r="G240" s="10"/>
-      <c r="H240" s="10"/>
-      <c r="I240" s="10"/>
-      <c r="J240" s="10"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A241" s="10"/>
-      <c r="B241" s="10"/>
-      <c r="C241" s="10"/>
-      <c r="D241" s="10"/>
-      <c r="E241" s="10"/>
-      <c r="F241" s="10"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="10"/>
-      <c r="I241" s="10"/>
-      <c r="J241" s="10"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A242" s="10"/>
-      <c r="B242" s="10"/>
-      <c r="C242" s="10"/>
-      <c r="D242" s="10"/>
-      <c r="E242" s="10"/>
-      <c r="F242" s="10"/>
-      <c r="G242" s="10"/>
-      <c r="H242" s="10"/>
-      <c r="I242" s="10"/>
-      <c r="J242" s="10"/>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A243" s="10"/>
-      <c r="B243" s="10"/>
-      <c r="C243" s="10"/>
-      <c r="D243" s="10"/>
-      <c r="E243" s="10"/>
-      <c r="F243" s="10"/>
-      <c r="G243" s="10"/>
-      <c r="H243" s="10"/>
-      <c r="I243" s="10"/>
-      <c r="J243" s="10"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A244" s="10"/>
-      <c r="B244" s="10"/>
-      <c r="C244" s="10"/>
-      <c r="D244" s="10"/>
-      <c r="E244" s="10"/>
-      <c r="F244" s="10"/>
-      <c r="G244" s="10"/>
-      <c r="H244" s="10"/>
-      <c r="I244" s="10"/>
-      <c r="J244" s="10"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A245" s="10"/>
-      <c r="B245" s="10"/>
-      <c r="C245" s="10"/>
-      <c r="D245" s="10"/>
-      <c r="E245" s="10"/>
-      <c r="F245" s="10"/>
-      <c r="G245" s="10"/>
-      <c r="H245" s="10"/>
-      <c r="I245" s="10"/>
-      <c r="J245" s="10"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A246" s="10"/>
-      <c r="B246" s="10"/>
-      <c r="C246" s="10"/>
-      <c r="D246" s="10"/>
-      <c r="E246" s="10"/>
-      <c r="F246" s="10"/>
-      <c r="G246" s="10"/>
-      <c r="H246" s="10"/>
-      <c r="I246" s="10"/>
-      <c r="J246" s="10"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A247" s="10"/>
-      <c r="B247" s="10"/>
-      <c r="C247" s="10"/>
-      <c r="D247" s="10"/>
-      <c r="E247" s="10"/>
-      <c r="F247" s="10"/>
-      <c r="G247" s="10"/>
-      <c r="H247" s="10"/>
-      <c r="I247" s="10"/>
-      <c r="J247" s="10"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A248" s="10"/>
-      <c r="B248" s="10"/>
-      <c r="C248" s="10"/>
-      <c r="D248" s="10"/>
-      <c r="E248" s="10"/>
-      <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
-      <c r="H248" s="10"/>
-      <c r="I248" s="10"/>
-      <c r="J248" s="10"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A249" s="10"/>
-      <c r="B249" s="10"/>
-      <c r="C249" s="10"/>
-      <c r="D249" s="10"/>
-      <c r="E249" s="10"/>
-      <c r="F249" s="10"/>
-      <c r="G249" s="10"/>
-      <c r="H249" s="10"/>
-      <c r="I249" s="10"/>
-      <c r="J249" s="10"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A250" s="10"/>
-      <c r="B250" s="10"/>
-      <c r="C250" s="10"/>
-      <c r="D250" s="10"/>
-      <c r="E250" s="10"/>
-      <c r="F250" s="10"/>
-      <c r="G250" s="10"/>
-      <c r="H250" s="10"/>
-      <c r="I250" s="10"/>
-      <c r="J250" s="10"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A251" s="10"/>
-      <c r="B251" s="10"/>
-      <c r="C251" s="10"/>
-      <c r="D251" s="10"/>
-      <c r="E251" s="10"/>
-      <c r="F251" s="10"/>
-      <c r="G251" s="10"/>
-      <c r="H251" s="10"/>
-      <c r="I251" s="10"/>
-      <c r="J251" s="10"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A252" s="10"/>
-      <c r="B252" s="10"/>
-      <c r="C252" s="10"/>
-      <c r="D252" s="10"/>
-      <c r="E252" s="10"/>
-      <c r="F252" s="10"/>
-      <c r="G252" s="10"/>
-      <c r="H252" s="10"/>
-      <c r="I252" s="10"/>
-      <c r="J252" s="10"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A253" s="10"/>
-      <c r="B253" s="10"/>
-      <c r="C253" s="10"/>
-      <c r="D253" s="10"/>
-      <c r="E253" s="10"/>
-      <c r="F253" s="10"/>
-      <c r="G253" s="10"/>
-      <c r="H253" s="10"/>
-      <c r="I253" s="10"/>
-      <c r="J253" s="10"/>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A254" s="10"/>
-      <c r="B254" s="10"/>
-      <c r="C254" s="10"/>
-      <c r="D254" s="10"/>
-      <c r="E254" s="10"/>
-      <c r="F254" s="10"/>
-      <c r="G254" s="10"/>
-      <c r="H254" s="10"/>
-      <c r="I254" s="10"/>
-      <c r="J254" s="10"/>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A255" s="10"/>
-      <c r="B255" s="10"/>
-      <c r="C255" s="10"/>
-      <c r="D255" s="10"/>
-      <c r="E255" s="10"/>
-      <c r="F255" s="10"/>
-      <c r="G255" s="10"/>
-      <c r="H255" s="10"/>
-      <c r="I255" s="10"/>
-      <c r="J255" s="10"/>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A256" s="10"/>
-      <c r="B256" s="10"/>
-      <c r="C256" s="10"/>
-      <c r="D256" s="10"/>
-      <c r="E256" s="10"/>
-      <c r="F256" s="10"/>
-      <c r="G256" s="10"/>
-      <c r="H256" s="10"/>
-      <c r="I256" s="10"/>
-      <c r="J256" s="10"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A257" s="10"/>
-      <c r="B257" s="10"/>
-      <c r="C257" s="10"/>
-      <c r="D257" s="10"/>
-      <c r="E257" s="10"/>
-      <c r="F257" s="10"/>
-      <c r="G257" s="10"/>
-      <c r="H257" s="10"/>
-      <c r="I257" s="10"/>
-      <c r="J257" s="10"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A258" s="10"/>
-      <c r="B258" s="10"/>
-      <c r="C258" s="10"/>
-      <c r="D258" s="10"/>
-      <c r="E258" s="10"/>
-      <c r="F258" s="10"/>
-      <c r="G258" s="10"/>
-      <c r="H258" s="10"/>
-      <c r="I258" s="10"/>
-      <c r="J258" s="10"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A259" s="10"/>
-      <c r="B259" s="10"/>
-      <c r="C259" s="10"/>
-      <c r="D259" s="10"/>
-      <c r="E259" s="10"/>
-      <c r="F259" s="10"/>
-      <c r="G259" s="10"/>
-      <c r="H259" s="10"/>
-      <c r="I259" s="10"/>
-      <c r="J259" s="10"/>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A260" s="10"/>
-      <c r="B260" s="10"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
-      <c r="E260" s="10"/>
-      <c r="F260" s="10"/>
-      <c r="G260" s="10"/>
-      <c r="H260" s="10"/>
-      <c r="I260" s="10"/>
-      <c r="J260" s="10"/>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A261" s="10"/>
-      <c r="B261" s="10"/>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10"/>
-      <c r="E261" s="10"/>
-      <c r="F261" s="10"/>
-      <c r="G261" s="10"/>
-      <c r="H261" s="10"/>
-      <c r="I261" s="10"/>
-      <c r="J261" s="10"/>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A262" s="10"/>
-      <c r="B262" s="10"/>
-      <c r="C262" s="10"/>
-      <c r="D262" s="10"/>
-      <c r="E262" s="10"/>
-      <c r="F262" s="10"/>
-      <c r="G262" s="10"/>
-      <c r="H262" s="10"/>
-      <c r="I262" s="10"/>
-      <c r="J262" s="10"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A263" s="10"/>
-      <c r="B263" s="10"/>
-      <c r="C263" s="10"/>
-      <c r="D263" s="10"/>
-      <c r="E263" s="10"/>
-      <c r="F263" s="10"/>
-      <c r="G263" s="10"/>
-      <c r="H263" s="10"/>
-      <c r="I263" s="10"/>
-      <c r="J263" s="10"/>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A264" s="10"/>
-      <c r="B264" s="10"/>
-      <c r="C264" s="10"/>
-      <c r="D264" s="10"/>
-      <c r="E264" s="10"/>
-      <c r="F264" s="10"/>
-      <c r="G264" s="10"/>
-      <c r="H264" s="10"/>
-      <c r="I264" s="10"/>
-      <c r="J264" s="10"/>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A265" s="10"/>
-      <c r="B265" s="10"/>
-      <c r="C265" s="10"/>
-      <c r="D265" s="10"/>
-      <c r="E265" s="10"/>
-      <c r="F265" s="10"/>
-      <c r="G265" s="10"/>
-      <c r="H265" s="10"/>
-      <c r="I265" s="10"/>
-      <c r="J265" s="10"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A266" s="10"/>
-      <c r="B266" s="10"/>
-      <c r="C266" s="10"/>
-      <c r="D266" s="10"/>
-      <c r="E266" s="10"/>
-      <c r="F266" s="10"/>
-      <c r="G266" s="10"/>
-      <c r="H266" s="10"/>
-      <c r="I266" s="10"/>
-      <c r="J266" s="10"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A267" s="10"/>
-      <c r="B267" s="10"/>
-      <c r="C267" s="10"/>
-      <c r="D267" s="10"/>
-      <c r="E267" s="10"/>
-      <c r="F267" s="10"/>
-      <c r="G267" s="10"/>
-      <c r="H267" s="10"/>
-      <c r="I267" s="10"/>
-      <c r="J267" s="10"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A268" s="10"/>
-      <c r="B268" s="10"/>
-      <c r="C268" s="10"/>
-      <c r="D268" s="10"/>
-      <c r="E268" s="10"/>
-      <c r="F268" s="10"/>
-      <c r="G268" s="10"/>
-      <c r="H268" s="10"/>
-      <c r="I268" s="10"/>
-      <c r="J268" s="10"/>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A269" s="10"/>
-      <c r="B269" s="10"/>
-      <c r="C269" s="10"/>
-      <c r="D269" s="10"/>
-      <c r="E269" s="10"/>
-      <c r="F269" s="10"/>
-      <c r="G269" s="10"/>
-      <c r="H269" s="10"/>
-      <c r="I269" s="10"/>
-      <c r="J269" s="10"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A270" s="10"/>
-      <c r="B270" s="10"/>
-      <c r="C270" s="10"/>
-      <c r="D270" s="10"/>
-      <c r="E270" s="10"/>
-      <c r="F270" s="10"/>
-      <c r="G270" s="10"/>
-      <c r="H270" s="10"/>
-      <c r="I270" s="10"/>
-      <c r="J270" s="10"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A271" s="10"/>
-      <c r="B271" s="10"/>
-      <c r="C271" s="10"/>
-      <c r="D271" s="10"/>
-      <c r="E271" s="10"/>
-      <c r="F271" s="10"/>
-      <c r="G271" s="10"/>
-      <c r="H271" s="10"/>
-      <c r="I271" s="10"/>
-      <c r="J271" s="10"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A272" s="10"/>
-      <c r="B272" s="10"/>
-      <c r="C272" s="10"/>
-      <c r="D272" s="10"/>
-      <c r="E272" s="10"/>
-      <c r="F272" s="10"/>
-      <c r="G272" s="10"/>
-      <c r="H272" s="10"/>
-      <c r="I272" s="10"/>
-      <c r="J272" s="10"/>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A273" s="10"/>
-      <c r="B273" s="10"/>
-      <c r="C273" s="10"/>
-      <c r="D273" s="10"/>
-      <c r="E273" s="10"/>
-      <c r="F273" s="10"/>
-      <c r="G273" s="10"/>
-      <c r="H273" s="10"/>
-      <c r="I273" s="10"/>
-      <c r="J273" s="10"/>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A274" s="10"/>
-      <c r="B274" s="10"/>
-      <c r="C274" s="10"/>
-      <c r="D274" s="10"/>
-      <c r="E274" s="10"/>
-      <c r="F274" s="10"/>
-      <c r="G274" s="10"/>
-      <c r="H274" s="10"/>
-      <c r="I274" s="10"/>
-      <c r="J274" s="10"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A275" s="10"/>
-      <c r="B275" s="10"/>
-      <c r="C275" s="10"/>
-      <c r="D275" s="10"/>
-      <c r="E275" s="10"/>
-      <c r="F275" s="10"/>
-      <c r="G275" s="10"/>
-      <c r="H275" s="10"/>
-      <c r="I275" s="10"/>
-      <c r="J275" s="10"/>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A276" s="10"/>
-      <c r="B276" s="10"/>
-      <c r="C276" s="10"/>
-      <c r="D276" s="10"/>
-      <c r="E276" s="10"/>
-      <c r="F276" s="10"/>
-      <c r="G276" s="10"/>
-      <c r="H276" s="10"/>
-      <c r="I276" s="10"/>
-      <c r="J276" s="10"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A277" s="10"/>
-      <c r="B277" s="10"/>
-      <c r="C277" s="10"/>
-      <c r="D277" s="10"/>
-      <c r="E277" s="10"/>
-      <c r="F277" s="10"/>
-      <c r="G277" s="10"/>
-      <c r="H277" s="10"/>
-      <c r="I277" s="10"/>
-      <c r="J277" s="10"/>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A278" s="10"/>
-      <c r="B278" s="10"/>
-      <c r="C278" s="10"/>
-      <c r="D278" s="10"/>
-      <c r="E278" s="10"/>
-      <c r="F278" s="10"/>
-      <c r="G278" s="10"/>
-      <c r="H278" s="10"/>
-      <c r="I278" s="10"/>
-      <c r="J278" s="10"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A279" s="10"/>
-      <c r="B279" s="10"/>
-      <c r="C279" s="10"/>
-      <c r="D279" s="10"/>
-      <c r="E279" s="10"/>
-      <c r="F279" s="10"/>
-      <c r="G279" s="10"/>
-      <c r="H279" s="10"/>
-      <c r="I279" s="10"/>
-      <c r="J279" s="10"/>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A280" s="10"/>
-      <c r="B280" s="10"/>
-      <c r="C280" s="10"/>
-      <c r="D280" s="10"/>
-      <c r="E280" s="10"/>
-      <c r="F280" s="10"/>
-      <c r="G280" s="10"/>
-      <c r="H280" s="10"/>
-      <c r="I280" s="10"/>
-      <c r="J280" s="10"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A281" s="10"/>
-      <c r="B281" s="10"/>
-      <c r="C281" s="10"/>
-      <c r="D281" s="10"/>
-      <c r="E281" s="10"/>
-      <c r="F281" s="10"/>
-      <c r="G281" s="10"/>
-      <c r="H281" s="10"/>
-      <c r="I281" s="10"/>
-      <c r="J281" s="10"/>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A282" s="10"/>
-      <c r="B282" s="10"/>
-      <c r="C282" s="10"/>
-      <c r="D282" s="10"/>
-      <c r="E282" s="10"/>
-      <c r="F282" s="10"/>
-      <c r="G282" s="10"/>
-      <c r="H282" s="10"/>
-      <c r="I282" s="10"/>
-      <c r="J282" s="10"/>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A283" s="10"/>
-      <c r="B283" s="10"/>
-      <c r="C283" s="10"/>
-      <c r="D283" s="10"/>
-      <c r="E283" s="10"/>
-      <c r="F283" s="10"/>
-      <c r="G283" s="10"/>
-      <c r="H283" s="10"/>
-      <c r="I283" s="10"/>
-      <c r="J283" s="10"/>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A284" s="10"/>
-      <c r="B284" s="10"/>
-      <c r="C284" s="10"/>
-      <c r="D284" s="10"/>
-      <c r="E284" s="10"/>
-      <c r="F284" s="10"/>
-      <c r="G284" s="10"/>
-      <c r="H284" s="10"/>
-      <c r="I284" s="10"/>
-      <c r="J284" s="10"/>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A285" s="10"/>
-      <c r="B285" s="10"/>
-      <c r="C285" s="10"/>
-      <c r="D285" s="10"/>
-      <c r="E285" s="10"/>
-      <c r="F285" s="10"/>
-      <c r="G285" s="10"/>
-      <c r="H285" s="10"/>
-      <c r="I285" s="10"/>
-      <c r="J285" s="10"/>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A286" s="10"/>
-      <c r="B286" s="10"/>
-      <c r="C286" s="10"/>
-      <c r="D286" s="10"/>
-      <c r="E286" s="10"/>
-      <c r="F286" s="10"/>
-      <c r="G286" s="10"/>
-      <c r="H286" s="10"/>
-      <c r="I286" s="10"/>
-      <c r="J286" s="10"/>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A287" s="10"/>
-      <c r="B287" s="10"/>
-      <c r="C287" s="10"/>
-      <c r="D287" s="10"/>
-      <c r="E287" s="10"/>
-      <c r="F287" s="10"/>
-      <c r="G287" s="10"/>
-      <c r="H287" s="10"/>
-      <c r="I287" s="10"/>
-      <c r="J287" s="10"/>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A288" s="10"/>
-      <c r="B288" s="10"/>
-      <c r="C288" s="10"/>
-      <c r="D288" s="10"/>
-      <c r="E288" s="10"/>
-      <c r="F288" s="10"/>
-      <c r="G288" s="10"/>
-      <c r="H288" s="10"/>
-      <c r="I288" s="10"/>
-      <c r="J288" s="10"/>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A289" s="10"/>
-      <c r="B289" s="10"/>
-      <c r="C289" s="10"/>
-      <c r="D289" s="10"/>
-      <c r="E289" s="10"/>
-      <c r="F289" s="10"/>
-      <c r="G289" s="10"/>
-      <c r="H289" s="10"/>
-      <c r="I289" s="10"/>
-      <c r="J289" s="10"/>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A290" s="10"/>
-      <c r="B290" s="10"/>
-      <c r="C290" s="10"/>
-      <c r="D290" s="10"/>
-      <c r="E290" s="10"/>
-      <c r="F290" s="10"/>
-      <c r="G290" s="10"/>
-      <c r="H290" s="10"/>
-      <c r="I290" s="10"/>
-      <c r="J290" s="10"/>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A291" s="10"/>
-      <c r="B291" s="10"/>
-      <c r="C291" s="10"/>
-      <c r="D291" s="10"/>
-      <c r="E291" s="10"/>
-      <c r="F291" s="10"/>
-      <c r="G291" s="10"/>
-      <c r="H291" s="10"/>
-      <c r="I291" s="10"/>
-      <c r="J291" s="10"/>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A292" s="10"/>
-      <c r="B292" s="10"/>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10"/>
-      <c r="E292" s="10"/>
-      <c r="F292" s="10"/>
-      <c r="G292" s="10"/>
-      <c r="H292" s="10"/>
-      <c r="I292" s="10"/>
-      <c r="J292" s="10"/>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A293" s="10"/>
-      <c r="B293" s="10"/>
-      <c r="C293" s="10"/>
-      <c r="D293" s="10"/>
-      <c r="E293" s="10"/>
-      <c r="F293" s="10"/>
-      <c r="G293" s="10"/>
-      <c r="H293" s="10"/>
-      <c r="I293" s="10"/>
-      <c r="J293" s="10"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A294" s="10"/>
-      <c r="B294" s="10"/>
-      <c r="C294" s="10"/>
-      <c r="D294" s="10"/>
-      <c r="E294" s="10"/>
-      <c r="F294" s="10"/>
-      <c r="G294" s="10"/>
-      <c r="H294" s="10"/>
-      <c r="I294" s="10"/>
-      <c r="J294" s="10"/>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A295" s="10"/>
-      <c r="B295" s="10"/>
-      <c r="C295" s="10"/>
-      <c r="D295" s="10"/>
-      <c r="E295" s="10"/>
-      <c r="F295" s="10"/>
-      <c r="G295" s="10"/>
-      <c r="H295" s="10"/>
-      <c r="I295" s="10"/>
-      <c r="J295" s="10"/>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A296" s="10"/>
-      <c r="B296" s="10"/>
-      <c r="C296" s="10"/>
-      <c r="D296" s="10"/>
-      <c r="E296" s="10"/>
-      <c r="F296" s="10"/>
-      <c r="G296" s="10"/>
-      <c r="H296" s="10"/>
-      <c r="I296" s="10"/>
-      <c r="J296" s="10"/>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A297" s="10"/>
-      <c r="B297" s="10"/>
-      <c r="C297" s="10"/>
-      <c r="D297" s="10"/>
-      <c r="E297" s="10"/>
-      <c r="F297" s="10"/>
-      <c r="G297" s="10"/>
-      <c r="H297" s="10"/>
-      <c r="I297" s="10"/>
-      <c r="J297" s="10"/>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A298" s="10"/>
-      <c r="B298" s="10"/>
-      <c r="C298" s="10"/>
-      <c r="D298" s="10"/>
-      <c r="E298" s="10"/>
-      <c r="F298" s="10"/>
-      <c r="G298" s="10"/>
-      <c r="H298" s="10"/>
-      <c r="I298" s="10"/>
-      <c r="J298" s="10"/>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A299" s="10"/>
-      <c r="B299" s="10"/>
-      <c r="C299" s="10"/>
-      <c r="D299" s="10"/>
-      <c r="E299" s="10"/>
-      <c r="F299" s="10"/>
-      <c r="G299" s="10"/>
-      <c r="H299" s="10"/>
-      <c r="I299" s="10"/>
-      <c r="J299" s="10"/>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A300" s="10"/>
-      <c r="B300" s="10"/>
-      <c r="C300" s="10"/>
-      <c r="D300" s="10"/>
-      <c r="E300" s="10"/>
-      <c r="F300" s="10"/>
-      <c r="G300" s="10"/>
-      <c r="H300" s="10"/>
-      <c r="I300" s="10"/>
-      <c r="J300" s="10"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A301" s="10"/>
-      <c r="B301" s="10"/>
-      <c r="C301" s="10"/>
-      <c r="D301" s="10"/>
-      <c r="E301" s="10"/>
-      <c r="F301" s="10"/>
-      <c r="G301" s="10"/>
-      <c r="H301" s="10"/>
-      <c r="I301" s="10"/>
-      <c r="J301" s="10"/>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A302" s="10"/>
-      <c r="B302" s="10"/>
-      <c r="C302" s="10"/>
-      <c r="D302" s="10"/>
-      <c r="E302" s="10"/>
-      <c r="F302" s="10"/>
-      <c r="G302" s="10"/>
-      <c r="H302" s="10"/>
-      <c r="I302" s="10"/>
-      <c r="J302" s="10"/>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A303" s="10"/>
-      <c r="B303" s="10"/>
-      <c r="C303" s="10"/>
-      <c r="D303" s="10"/>
-      <c r="E303" s="10"/>
-      <c r="F303" s="10"/>
-      <c r="G303" s="10"/>
-      <c r="H303" s="10"/>
-      <c r="I303" s="10"/>
-      <c r="J303" s="10"/>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A304" s="10"/>
-      <c r="B304" s="10"/>
-      <c r="C304" s="10"/>
-      <c r="D304" s="10"/>
-      <c r="E304" s="10"/>
-      <c r="F304" s="10"/>
-      <c r="G304" s="10"/>
-      <c r="H304" s="10"/>
-      <c r="I304" s="10"/>
-      <c r="J304" s="10"/>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A305" s="10"/>
-      <c r="B305" s="10"/>
-      <c r="C305" s="10"/>
-      <c r="D305" s="10"/>
-      <c r="E305" s="10"/>
-      <c r="F305" s="10"/>
-      <c r="G305" s="10"/>
-      <c r="H305" s="10"/>
-      <c r="I305" s="10"/>
-      <c r="J305" s="10"/>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A306" s="10"/>
-      <c r="B306" s="10"/>
-      <c r="C306" s="10"/>
-      <c r="D306" s="10"/>
-      <c r="E306" s="10"/>
-      <c r="F306" s="10"/>
-      <c r="G306" s="10"/>
-      <c r="H306" s="10"/>
-      <c r="I306" s="10"/>
-      <c r="J306" s="10"/>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A307" s="10"/>
-      <c r="B307" s="10"/>
-      <c r="C307" s="10"/>
-      <c r="D307" s="10"/>
-      <c r="E307" s="10"/>
-      <c r="F307" s="10"/>
-      <c r="G307" s="10"/>
-      <c r="H307" s="10"/>
-      <c r="I307" s="10"/>
-      <c r="J307" s="10"/>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A308" s="10"/>
-      <c r="B308" s="10"/>
-      <c r="C308" s="10"/>
-      <c r="D308" s="10"/>
-      <c r="E308" s="10"/>
-      <c r="F308" s="10"/>
-      <c r="G308" s="10"/>
-      <c r="H308" s="10"/>
-      <c r="I308" s="10"/>
-      <c r="J308" s="10"/>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A309" s="10"/>
-      <c r="B309" s="10"/>
-      <c r="C309" s="10"/>
-      <c r="D309" s="10"/>
-      <c r="E309" s="10"/>
-      <c r="F309" s="10"/>
-      <c r="G309" s="10"/>
-      <c r="H309" s="10"/>
-      <c r="I309" s="10"/>
-      <c r="J309" s="10"/>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A310" s="10"/>
-      <c r="B310" s="10"/>
-      <c r="C310" s="10"/>
-      <c r="D310" s="10"/>
-      <c r="E310" s="10"/>
-      <c r="F310" s="10"/>
-      <c r="G310" s="10"/>
-      <c r="H310" s="10"/>
-      <c r="I310" s="10"/>
-      <c r="J310" s="10"/>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A311" s="10"/>
-      <c r="B311" s="10"/>
-      <c r="C311" s="10"/>
-      <c r="D311" s="10"/>
-      <c r="E311" s="10"/>
-      <c r="F311" s="10"/>
-      <c r="G311" s="10"/>
-      <c r="H311" s="10"/>
-      <c r="I311" s="10"/>
-      <c r="J311" s="10"/>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A312" s="10"/>
-      <c r="B312" s="10"/>
-      <c r="C312" s="10"/>
-      <c r="D312" s="10"/>
-      <c r="E312" s="10"/>
-      <c r="F312" s="10"/>
-      <c r="G312" s="10"/>
-      <c r="H312" s="10"/>
-      <c r="I312" s="10"/>
-      <c r="J312" s="10"/>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A313" s="10"/>
-      <c r="B313" s="10"/>
-      <c r="C313" s="10"/>
-      <c r="D313" s="10"/>
-      <c r="E313" s="10"/>
-      <c r="F313" s="10"/>
-      <c r="G313" s="10"/>
-      <c r="H313" s="10"/>
-      <c r="I313" s="10"/>
-      <c r="J313" s="10"/>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A314" s="10"/>
-      <c r="B314" s="10"/>
-      <c r="C314" s="10"/>
-      <c r="D314" s="10"/>
-      <c r="E314" s="10"/>
-      <c r="F314" s="10"/>
-      <c r="G314" s="10"/>
-      <c r="H314" s="10"/>
-      <c r="I314" s="10"/>
-      <c r="J314" s="10"/>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A315" s="10"/>
-      <c r="B315" s="10"/>
-      <c r="C315" s="10"/>
-      <c r="D315" s="10"/>
-      <c r="E315" s="10"/>
-      <c r="F315" s="10"/>
-      <c r="G315" s="10"/>
-      <c r="H315" s="10"/>
-      <c r="I315" s="10"/>
-      <c r="J315" s="10"/>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A316" s="10"/>
-      <c r="B316" s="10"/>
-      <c r="C316" s="10"/>
-      <c r="D316" s="10"/>
-      <c r="E316" s="10"/>
-      <c r="F316" s="10"/>
-      <c r="G316" s="10"/>
-      <c r="H316" s="10"/>
-      <c r="I316" s="10"/>
-      <c r="J316" s="10"/>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A317" s="10"/>
-      <c r="B317" s="10"/>
-      <c r="C317" s="10"/>
-      <c r="D317" s="10"/>
-      <c r="E317" s="10"/>
-      <c r="F317" s="10"/>
-      <c r="G317" s="10"/>
-      <c r="H317" s="10"/>
-      <c r="I317" s="10"/>
-      <c r="J317" s="10"/>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A318" s="10"/>
-      <c r="B318" s="10"/>
-      <c r="C318" s="10"/>
-      <c r="D318" s="10"/>
-      <c r="E318" s="10"/>
-      <c r="F318" s="10"/>
-      <c r="G318" s="10"/>
-      <c r="H318" s="10"/>
-      <c r="I318" s="10"/>
-      <c r="J318" s="10"/>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A319" s="10"/>
-      <c r="B319" s="10"/>
-      <c r="C319" s="10"/>
-      <c r="D319" s="10"/>
-      <c r="E319" s="10"/>
-      <c r="F319" s="10"/>
-      <c r="G319" s="10"/>
-      <c r="H319" s="10"/>
-      <c r="I319" s="10"/>
-      <c r="J319" s="10"/>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A320" s="10"/>
-      <c r="B320" s="10"/>
-      <c r="C320" s="10"/>
-      <c r="D320" s="10"/>
-      <c r="E320" s="10"/>
-      <c r="F320" s="10"/>
-      <c r="G320" s="10"/>
-      <c r="H320" s="10"/>
-      <c r="I320" s="10"/>
-      <c r="J320" s="10"/>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A321" s="10"/>
-      <c r="B321" s="10"/>
-      <c r="C321" s="10"/>
-      <c r="D321" s="10"/>
-      <c r="E321" s="10"/>
-      <c r="F321" s="10"/>
-      <c r="G321" s="10"/>
-      <c r="H321" s="10"/>
-      <c r="I321" s="10"/>
-      <c r="J321" s="10"/>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A322" s="10"/>
-      <c r="B322" s="10"/>
-      <c r="C322" s="10"/>
-      <c r="D322" s="10"/>
-      <c r="E322" s="10"/>
-      <c r="F322" s="10"/>
-      <c r="G322" s="10"/>
-      <c r="H322" s="10"/>
-      <c r="I322" s="10"/>
-      <c r="J322" s="10"/>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A323" s="10"/>
-      <c r="B323" s="10"/>
-      <c r="C323" s="10"/>
-      <c r="D323" s="10"/>
-      <c r="E323" s="10"/>
-      <c r="F323" s="10"/>
-      <c r="G323" s="10"/>
-      <c r="H323" s="10"/>
-      <c r="I323" s="10"/>
-      <c r="J323" s="10"/>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A324" s="10"/>
-      <c r="B324" s="10"/>
-      <c r="C324" s="10"/>
-      <c r="D324" s="10"/>
-      <c r="E324" s="10"/>
-      <c r="F324" s="10"/>
-      <c r="G324" s="10"/>
-      <c r="H324" s="10"/>
-      <c r="I324" s="10"/>
-      <c r="J324" s="10"/>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A325" s="10"/>
-      <c r="B325" s="10"/>
-      <c r="C325" s="10"/>
-      <c r="D325" s="10"/>
-      <c r="E325" s="10"/>
-      <c r="F325" s="10"/>
-      <c r="G325" s="10"/>
-      <c r="H325" s="10"/>
-      <c r="I325" s="10"/>
-      <c r="J325" s="10"/>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A326" s="10"/>
-      <c r="B326" s="10"/>
-      <c r="C326" s="10"/>
-      <c r="D326" s="10"/>
-      <c r="E326" s="10"/>
-      <c r="F326" s="10"/>
-      <c r="G326" s="10"/>
-      <c r="H326" s="10"/>
-      <c r="I326" s="10"/>
-      <c r="J326" s="10"/>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A327" s="10"/>
-      <c r="B327" s="10"/>
-      <c r="C327" s="10"/>
-      <c r="D327" s="10"/>
-      <c r="E327" s="10"/>
-      <c r="F327" s="10"/>
-      <c r="G327" s="10"/>
-      <c r="H327" s="10"/>
-      <c r="I327" s="10"/>
-      <c r="J327" s="10"/>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A328" s="10"/>
-      <c r="B328" s="10"/>
-      <c r="C328" s="10"/>
-      <c r="D328" s="10"/>
-      <c r="E328" s="10"/>
-      <c r="F328" s="10"/>
-      <c r="G328" s="10"/>
-      <c r="H328" s="10"/>
-      <c r="I328" s="10"/>
-      <c r="J328" s="10"/>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A329" s="10"/>
-      <c r="B329" s="10"/>
-      <c r="C329" s="10"/>
-      <c r="D329" s="10"/>
-      <c r="E329" s="10"/>
-      <c r="F329" s="10"/>
-      <c r="G329" s="10"/>
-      <c r="H329" s="10"/>
-      <c r="I329" s="10"/>
-      <c r="J329" s="10"/>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A330" s="10"/>
-      <c r="B330" s="10"/>
-      <c r="C330" s="10"/>
-      <c r="D330" s="10"/>
-      <c r="E330" s="10"/>
-      <c r="F330" s="10"/>
-      <c r="G330" s="10"/>
-      <c r="H330" s="10"/>
-      <c r="I330" s="10"/>
-      <c r="J330" s="10"/>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A331" s="10"/>
-      <c r="B331" s="10"/>
-      <c r="C331" s="10"/>
-      <c r="D331" s="10"/>
-      <c r="E331" s="10"/>
-      <c r="F331" s="10"/>
-      <c r="G331" s="10"/>
-      <c r="H331" s="10"/>
-      <c r="I331" s="10"/>
-      <c r="J331" s="10"/>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A332" s="10"/>
-      <c r="B332" s="10"/>
-      <c r="C332" s="10"/>
-      <c r="D332" s="10"/>
-      <c r="E332" s="10"/>
-      <c r="F332" s="10"/>
-      <c r="G332" s="10"/>
-      <c r="H332" s="10"/>
-      <c r="I332" s="10"/>
-      <c r="J332" s="10"/>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A333" s="10"/>
-      <c r="B333" s="10"/>
-      <c r="C333" s="10"/>
-      <c r="D333" s="10"/>
-      <c r="E333" s="10"/>
-      <c r="F333" s="10"/>
-      <c r="G333" s="10"/>
-      <c r="H333" s="10"/>
-      <c r="I333" s="10"/>
-      <c r="J333" s="10"/>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A334" s="10"/>
-      <c r="B334" s="10"/>
-      <c r="C334" s="10"/>
-      <c r="D334" s="10"/>
-      <c r="E334" s="10"/>
-      <c r="F334" s="10"/>
-      <c r="G334" s="10"/>
-      <c r="H334" s="10"/>
-      <c r="I334" s="10"/>
-      <c r="J334" s="10"/>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A335" s="10"/>
-      <c r="B335" s="10"/>
-      <c r="C335" s="10"/>
-      <c r="D335" s="10"/>
-      <c r="E335" s="10"/>
-      <c r="F335" s="10"/>
-      <c r="G335" s="10"/>
-      <c r="H335" s="10"/>
-      <c r="I335" s="10"/>
-      <c r="J335" s="10"/>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A336" s="10"/>
-      <c r="B336" s="10"/>
-      <c r="C336" s="10"/>
-      <c r="D336" s="10"/>
-      <c r="E336" s="10"/>
-      <c r="F336" s="10"/>
-      <c r="G336" s="10"/>
-      <c r="H336" s="10"/>
-      <c r="I336" s="10"/>
-      <c r="J336" s="10"/>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A337" s="10"/>
-      <c r="B337" s="10"/>
-      <c r="C337" s="10"/>
-      <c r="D337" s="10"/>
-      <c r="E337" s="10"/>
-      <c r="F337" s="10"/>
-      <c r="G337" s="10"/>
-      <c r="H337" s="10"/>
-      <c r="I337" s="10"/>
-      <c r="J337" s="10"/>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A338" s="10"/>
-      <c r="B338" s="10"/>
-      <c r="C338" s="10"/>
-      <c r="D338" s="10"/>
-      <c r="E338" s="10"/>
-      <c r="F338" s="10"/>
-      <c r="G338" s="10"/>
-      <c r="H338" s="10"/>
-      <c r="I338" s="10"/>
-      <c r="J338" s="10"/>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A339" s="10"/>
-      <c r="B339" s="10"/>
-      <c r="C339" s="10"/>
-      <c r="D339" s="10"/>
-      <c r="E339" s="10"/>
-      <c r="F339" s="10"/>
-      <c r="G339" s="10"/>
-      <c r="H339" s="10"/>
-      <c r="I339" s="10"/>
-      <c r="J339" s="10"/>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A340" s="10"/>
-      <c r="B340" s="10"/>
-      <c r="C340" s="10"/>
-      <c r="D340" s="10"/>
-      <c r="E340" s="10"/>
-      <c r="F340" s="10"/>
-      <c r="G340" s="10"/>
-      <c r="H340" s="10"/>
-      <c r="I340" s="10"/>
-      <c r="J340" s="10"/>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A341" s="10"/>
-      <c r="B341" s="10"/>
-      <c r="C341" s="10"/>
-      <c r="D341" s="10"/>
-      <c r="E341" s="10"/>
-      <c r="F341" s="10"/>
-      <c r="G341" s="10"/>
-      <c r="H341" s="10"/>
-      <c r="I341" s="10"/>
-      <c r="J341" s="10"/>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A342" s="10"/>
-      <c r="B342" s="10"/>
-      <c r="C342" s="10"/>
-      <c r="D342" s="10"/>
-      <c r="E342" s="10"/>
-      <c r="F342" s="10"/>
-      <c r="G342" s="10"/>
-      <c r="H342" s="10"/>
-      <c r="I342" s="10"/>
-      <c r="J342" s="10"/>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A343" s="10"/>
-      <c r="B343" s="10"/>
-      <c r="C343" s="10"/>
-      <c r="D343" s="10"/>
-      <c r="E343" s="10"/>
-      <c r="F343" s="10"/>
-      <c r="G343" s="10"/>
-      <c r="H343" s="10"/>
-      <c r="I343" s="10"/>
-      <c r="J343" s="10"/>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A344" s="10"/>
-      <c r="B344" s="10"/>
-      <c r="C344" s="10"/>
-      <c r="D344" s="10"/>
-      <c r="E344" s="10"/>
-      <c r="F344" s="10"/>
-      <c r="G344" s="10"/>
-      <c r="H344" s="10"/>
-      <c r="I344" s="10"/>
-      <c r="J344" s="10"/>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A345" s="10"/>
-      <c r="B345" s="10"/>
-      <c r="C345" s="10"/>
-      <c r="D345" s="10"/>
-      <c r="E345" s="10"/>
-      <c r="F345" s="10"/>
-      <c r="G345" s="10"/>
-      <c r="H345" s="10"/>
-      <c r="I345" s="10"/>
-      <c r="J345" s="10"/>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A346" s="10"/>
-      <c r="B346" s="10"/>
-      <c r="C346" s="10"/>
-      <c r="D346" s="10"/>
-      <c r="E346" s="10"/>
-      <c r="F346" s="10"/>
-      <c r="G346" s="10"/>
-      <c r="H346" s="10"/>
-      <c r="I346" s="10"/>
-      <c r="J346" s="10"/>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A347" s="10"/>
-      <c r="B347" s="10"/>
-      <c r="C347" s="10"/>
-      <c r="D347" s="10"/>
-      <c r="E347" s="10"/>
-      <c r="F347" s="10"/>
-      <c r="G347" s="10"/>
-      <c r="H347" s="10"/>
-      <c r="I347" s="10"/>
-      <c r="J347" s="10"/>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A348" s="10"/>
-      <c r="B348" s="10"/>
-      <c r="C348" s="10"/>
-      <c r="D348" s="10"/>
-      <c r="E348" s="10"/>
-      <c r="F348" s="10"/>
-      <c r="G348" s="10"/>
-      <c r="H348" s="10"/>
-      <c r="I348" s="10"/>
-      <c r="J348" s="10"/>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A349" s="10"/>
-      <c r="B349" s="10"/>
-      <c r="C349" s="10"/>
-      <c r="D349" s="10"/>
-      <c r="E349" s="10"/>
-      <c r="F349" s="10"/>
-      <c r="G349" s="10"/>
-      <c r="H349" s="10"/>
-      <c r="I349" s="10"/>
-      <c r="J349" s="10"/>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A350" s="10"/>
-      <c r="B350" s="10"/>
-      <c r="C350" s="10"/>
-      <c r="D350" s="10"/>
-      <c r="E350" s="10"/>
-      <c r="F350" s="10"/>
-      <c r="G350" s="10"/>
-      <c r="H350" s="10"/>
-      <c r="I350" s="10"/>
-      <c r="J350" s="10"/>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A351" s="10"/>
-      <c r="B351" s="10"/>
-      <c r="C351" s="10"/>
-      <c r="D351" s="10"/>
-      <c r="E351" s="10"/>
-      <c r="F351" s="10"/>
-      <c r="G351" s="10"/>
-      <c r="H351" s="10"/>
-      <c r="I351" s="10"/>
-      <c r="J351" s="10"/>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A352" s="10"/>
-      <c r="B352" s="10"/>
-      <c r="C352" s="10"/>
-      <c r="D352" s="10"/>
-      <c r="E352" s="10"/>
-      <c r="F352" s="10"/>
-      <c r="G352" s="10"/>
-      <c r="H352" s="10"/>
-      <c r="I352" s="10"/>
-      <c r="J352" s="10"/>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A353" s="10"/>
-      <c r="B353" s="10"/>
-      <c r="C353" s="10"/>
-      <c r="D353" s="10"/>
-      <c r="E353" s="10"/>
-      <c r="F353" s="10"/>
-      <c r="G353" s="10"/>
-      <c r="H353" s="10"/>
-      <c r="I353" s="10"/>
-      <c r="J353" s="10"/>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A354" s="10"/>
-      <c r="B354" s="10"/>
-      <c r="C354" s="10"/>
-      <c r="D354" s="10"/>
-      <c r="E354" s="10"/>
-      <c r="F354" s="10"/>
-      <c r="G354" s="10"/>
-      <c r="H354" s="10"/>
-      <c r="I354" s="10"/>
-      <c r="J354" s="10"/>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A355" s="10"/>
-      <c r="B355" s="10"/>
-      <c r="C355" s="10"/>
-      <c r="D355" s="10"/>
-      <c r="E355" s="10"/>
-      <c r="F355" s="10"/>
-      <c r="G355" s="10"/>
-      <c r="H355" s="10"/>
-      <c r="I355" s="10"/>
-      <c r="J355" s="10"/>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A356" s="10"/>
-      <c r="B356" s="10"/>
-      <c r="C356" s="10"/>
-      <c r="D356" s="10"/>
-      <c r="E356" s="10"/>
-      <c r="F356" s="10"/>
-      <c r="G356" s="10"/>
-      <c r="H356" s="10"/>
-      <c r="I356" s="10"/>
-      <c r="J356" s="10"/>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A357" s="10"/>
-      <c r="B357" s="10"/>
-      <c r="C357" s="10"/>
-      <c r="D357" s="10"/>
-      <c r="E357" s="10"/>
-      <c r="F357" s="10"/>
-      <c r="G357" s="10"/>
-      <c r="H357" s="10"/>
-      <c r="I357" s="10"/>
-      <c r="J357" s="10"/>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A358" s="10"/>
-      <c r="B358" s="10"/>
-      <c r="C358" s="10"/>
-      <c r="D358" s="10"/>
-      <c r="E358" s="10"/>
-      <c r="F358" s="10"/>
-      <c r="G358" s="10"/>
-      <c r="H358" s="10"/>
-      <c r="I358" s="10"/>
-      <c r="J358" s="10"/>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A359" s="10"/>
-      <c r="B359" s="10"/>
-      <c r="C359" s="10"/>
-      <c r="D359" s="10"/>
-      <c r="E359" s="10"/>
-      <c r="F359" s="10"/>
-      <c r="G359" s="10"/>
-      <c r="H359" s="10"/>
-      <c r="I359" s="10"/>
-      <c r="J359" s="10"/>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A360" s="10"/>
-      <c r="B360" s="10"/>
-      <c r="C360" s="10"/>
-      <c r="D360" s="10"/>
-      <c r="E360" s="10"/>
-      <c r="F360" s="10"/>
-      <c r="G360" s="10"/>
-      <c r="H360" s="10"/>
-      <c r="I360" s="10"/>
-      <c r="J360" s="10"/>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A361" s="10"/>
-      <c r="B361" s="10"/>
-      <c r="C361" s="10"/>
-      <c r="D361" s="10"/>
-      <c r="E361" s="10"/>
-      <c r="F361" s="10"/>
-      <c r="G361" s="10"/>
-      <c r="H361" s="10"/>
-      <c r="I361" s="10"/>
-      <c r="J361" s="10"/>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A362" s="10"/>
-      <c r="B362" s="10"/>
-      <c r="C362" s="10"/>
-      <c r="D362" s="10"/>
-      <c r="E362" s="10"/>
-      <c r="F362" s="10"/>
-      <c r="G362" s="10"/>
-      <c r="H362" s="10"/>
-      <c r="I362" s="10"/>
-      <c r="J362" s="10"/>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A363" s="10"/>
-      <c r="B363" s="10"/>
-      <c r="C363" s="10"/>
-      <c r="D363" s="10"/>
-      <c r="E363" s="10"/>
-      <c r="F363" s="10"/>
-      <c r="G363" s="10"/>
-      <c r="H363" s="10"/>
-      <c r="I363" s="10"/>
-      <c r="J363" s="10"/>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A364" s="10"/>
-      <c r="B364" s="10"/>
-      <c r="C364" s="10"/>
-      <c r="D364" s="10"/>
-      <c r="E364" s="10"/>
-      <c r="F364" s="10"/>
-      <c r="G364" s="10"/>
-      <c r="H364" s="10"/>
-      <c r="I364" s="10"/>
-      <c r="J364" s="10"/>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A365" s="10"/>
-      <c r="B365" s="10"/>
-      <c r="C365" s="10"/>
-      <c r="D365" s="10"/>
-      <c r="E365" s="10"/>
-      <c r="F365" s="10"/>
-      <c r="G365" s="10"/>
-      <c r="H365" s="10"/>
-      <c r="I365" s="10"/>
-      <c r="J365" s="10"/>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A366" s="10"/>
-      <c r="B366" s="10"/>
-      <c r="C366" s="10"/>
-      <c r="D366" s="10"/>
-      <c r="E366" s="10"/>
-      <c r="F366" s="10"/>
-      <c r="G366" s="10"/>
-      <c r="H366" s="10"/>
-      <c r="I366" s="10"/>
-      <c r="J366" s="10"/>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A367" s="10"/>
-      <c r="B367" s="10"/>
-      <c r="C367" s="10"/>
-      <c r="D367" s="10"/>
-      <c r="E367" s="10"/>
-      <c r="F367" s="10"/>
-      <c r="G367" s="10"/>
-      <c r="H367" s="10"/>
-      <c r="I367" s="10"/>
-      <c r="J367" s="10"/>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A368" s="10"/>
-      <c r="B368" s="10"/>
-      <c r="C368" s="10"/>
-      <c r="D368" s="10"/>
-      <c r="E368" s="10"/>
-      <c r="F368" s="10"/>
-      <c r="G368" s="10"/>
-      <c r="H368" s="10"/>
-      <c r="I368" s="10"/>
-      <c r="J368" s="10"/>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A369" s="10"/>
-      <c r="B369" s="10"/>
-      <c r="C369" s="10"/>
-      <c r="D369" s="10"/>
-      <c r="E369" s="10"/>
-      <c r="F369" s="10"/>
-      <c r="G369" s="10"/>
-      <c r="H369" s="10"/>
-      <c r="I369" s="10"/>
-      <c r="J369" s="10"/>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A370" s="10"/>
-      <c r="B370" s="10"/>
-      <c r="C370" s="10"/>
-      <c r="D370" s="10"/>
-      <c r="E370" s="10"/>
-      <c r="F370" s="10"/>
-      <c r="G370" s="10"/>
-      <c r="H370" s="10"/>
-      <c r="I370" s="10"/>
-      <c r="J370" s="10"/>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A371" s="10"/>
-      <c r="B371" s="10"/>
-      <c r="C371" s="10"/>
-      <c r="D371" s="10"/>
-      <c r="E371" s="10"/>
-      <c r="F371" s="10"/>
-      <c r="G371" s="10"/>
-      <c r="H371" s="10"/>
-      <c r="I371" s="10"/>
-      <c r="J371" s="10"/>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A372" s="10"/>
-      <c r="B372" s="10"/>
-      <c r="C372" s="10"/>
-      <c r="D372" s="10"/>
-      <c r="E372" s="10"/>
-      <c r="F372" s="10"/>
-      <c r="G372" s="10"/>
-      <c r="H372" s="10"/>
-      <c r="I372" s="10"/>
-      <c r="J372" s="10"/>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A373" s="10"/>
-      <c r="B373" s="10"/>
-      <c r="C373" s="10"/>
-      <c r="D373" s="10"/>
-      <c r="E373" s="10"/>
-      <c r="F373" s="10"/>
-      <c r="G373" s="10"/>
-      <c r="H373" s="10"/>
-      <c r="I373" s="10"/>
-      <c r="J373" s="10"/>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A374" s="10"/>
-      <c r="B374" s="10"/>
-      <c r="C374" s="10"/>
-      <c r="D374" s="10"/>
-      <c r="E374" s="10"/>
-      <c r="F374" s="10"/>
-      <c r="G374" s="10"/>
-      <c r="H374" s="10"/>
-      <c r="I374" s="10"/>
-      <c r="J374" s="10"/>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A375" s="10"/>
-      <c r="B375" s="10"/>
-      <c r="C375" s="10"/>
-      <c r="D375" s="10"/>
-      <c r="E375" s="10"/>
-      <c r="F375" s="10"/>
-      <c r="G375" s="10"/>
-      <c r="H375" s="10"/>
-      <c r="I375" s="10"/>
-      <c r="J375" s="10"/>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A376" s="10"/>
-      <c r="B376" s="10"/>
-      <c r="C376" s="10"/>
-      <c r="D376" s="10"/>
-      <c r="E376" s="10"/>
-      <c r="F376" s="10"/>
-      <c r="G376" s="10"/>
-      <c r="H376" s="10"/>
-      <c r="I376" s="10"/>
-      <c r="J376" s="10"/>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A377" s="10"/>
-      <c r="B377" s="10"/>
-      <c r="C377" s="10"/>
-      <c r="D377" s="10"/>
-      <c r="E377" s="10"/>
-      <c r="F377" s="10"/>
-      <c r="G377" s="10"/>
-      <c r="H377" s="10"/>
-      <c r="I377" s="10"/>
-      <c r="J377" s="10"/>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A378" s="10"/>
-      <c r="B378" s="10"/>
-      <c r="C378" s="10"/>
-      <c r="D378" s="10"/>
-      <c r="E378" s="10"/>
-      <c r="F378" s="10"/>
-      <c r="G378" s="10"/>
-      <c r="H378" s="10"/>
-      <c r="I378" s="10"/>
-      <c r="J378" s="10"/>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A379" s="10"/>
-      <c r="B379" s="10"/>
-      <c r="C379" s="10"/>
-      <c r="D379" s="10"/>
-      <c r="E379" s="10"/>
-      <c r="F379" s="10"/>
-      <c r="G379" s="10"/>
-      <c r="H379" s="10"/>
-      <c r="I379" s="10"/>
-      <c r="J379" s="10"/>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A380" s="10"/>
-      <c r="B380" s="10"/>
-      <c r="C380" s="10"/>
-      <c r="D380" s="10"/>
-      <c r="E380" s="10"/>
-      <c r="F380" s="10"/>
-      <c r="G380" s="10"/>
-      <c r="H380" s="10"/>
-      <c r="I380" s="10"/>
-      <c r="J380" s="10"/>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A381" s="10"/>
-      <c r="B381" s="10"/>
-      <c r="C381" s="10"/>
-      <c r="D381" s="10"/>
-      <c r="E381" s="10"/>
-      <c r="F381" s="10"/>
-      <c r="G381" s="10"/>
-      <c r="H381" s="10"/>
-      <c r="I381" s="10"/>
-      <c r="J381" s="10"/>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A382" s="10"/>
-      <c r="B382" s="10"/>
-      <c r="C382" s="10"/>
-      <c r="D382" s="10"/>
-      <c r="E382" s="10"/>
-      <c r="F382" s="10"/>
-      <c r="G382" s="10"/>
-      <c r="H382" s="10"/>
-      <c r="I382" s="10"/>
-      <c r="J382" s="10"/>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A383" s="10"/>
-      <c r="B383" s="10"/>
-      <c r="C383" s="10"/>
-      <c r="D383" s="10"/>
-      <c r="E383" s="10"/>
-      <c r="F383" s="10"/>
-      <c r="G383" s="10"/>
-      <c r="H383" s="10"/>
-      <c r="I383" s="10"/>
-      <c r="J383" s="10"/>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A384" s="10"/>
-      <c r="B384" s="10"/>
-      <c r="C384" s="10"/>
-      <c r="D384" s="10"/>
-      <c r="E384" s="10"/>
-      <c r="F384" s="10"/>
-      <c r="G384" s="10"/>
-      <c r="H384" s="10"/>
-      <c r="I384" s="10"/>
-      <c r="J384" s="10"/>
-    </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A385" s="10"/>
-      <c r="B385" s="10"/>
-      <c r="C385" s="10"/>
-      <c r="D385" s="10"/>
-      <c r="E385" s="10"/>
-      <c r="F385" s="10"/>
-      <c r="G385" s="10"/>
-      <c r="H385" s="10"/>
-      <c r="I385" s="10"/>
-      <c r="J385" s="10"/>
-    </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A386" s="10"/>
-      <c r="B386" s="10"/>
-      <c r="C386" s="10"/>
-      <c r="D386" s="10"/>
-      <c r="E386" s="10"/>
-      <c r="F386" s="10"/>
-      <c r="G386" s="10"/>
-      <c r="H386" s="10"/>
-      <c r="I386" s="10"/>
-      <c r="J386" s="10"/>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A387" s="10"/>
-      <c r="B387" s="10"/>
-      <c r="C387" s="10"/>
-      <c r="D387" s="10"/>
-      <c r="E387" s="10"/>
-      <c r="F387" s="10"/>
-      <c r="G387" s="10"/>
-      <c r="H387" s="10"/>
-      <c r="I387" s="10"/>
-      <c r="J387" s="10"/>
-    </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A388" s="10"/>
-      <c r="B388" s="10"/>
-      <c r="C388" s="10"/>
-      <c r="D388" s="10"/>
-      <c r="E388" s="10"/>
-      <c r="F388" s="10"/>
-      <c r="G388" s="10"/>
-      <c r="H388" s="10"/>
-      <c r="I388" s="10"/>
-      <c r="J388" s="10"/>
-    </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A389" s="10"/>
-      <c r="B389" s="10"/>
-      <c r="C389" s="10"/>
-      <c r="D389" s="10"/>
-      <c r="E389" s="10"/>
-      <c r="F389" s="10"/>
-      <c r="G389" s="10"/>
-      <c r="H389" s="10"/>
-      <c r="I389" s="10"/>
-      <c r="J389" s="10"/>
-    </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A390" s="10"/>
-      <c r="B390" s="10"/>
-      <c r="C390" s="10"/>
-      <c r="D390" s="10"/>
-      <c r="E390" s="10"/>
-      <c r="F390" s="10"/>
-      <c r="G390" s="10"/>
-      <c r="H390" s="10"/>
-      <c r="I390" s="10"/>
-      <c r="J390" s="10"/>
-    </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A391" s="10"/>
-      <c r="B391" s="10"/>
-      <c r="C391" s="10"/>
-      <c r="D391" s="10"/>
-      <c r="E391" s="10"/>
-      <c r="F391" s="10"/>
-      <c r="G391" s="10"/>
-      <c r="H391" s="10"/>
-      <c r="I391" s="10"/>
-      <c r="J391" s="10"/>
-    </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A392" s="10"/>
-      <c r="B392" s="10"/>
-      <c r="C392" s="10"/>
-      <c r="D392" s="10"/>
-      <c r="E392" s="10"/>
-      <c r="F392" s="10"/>
-      <c r="G392" s="10"/>
-      <c r="H392" s="10"/>
-      <c r="I392" s="10"/>
-      <c r="J392" s="10"/>
-    </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A393" s="10"/>
-      <c r="B393" s="10"/>
-      <c r="C393" s="10"/>
-      <c r="D393" s="10"/>
-      <c r="E393" s="10"/>
-      <c r="F393" s="10"/>
-      <c r="G393" s="10"/>
-      <c r="H393" s="10"/>
-      <c r="I393" s="10"/>
-      <c r="J393" s="10"/>
-    </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A394" s="10"/>
-      <c r="B394" s="10"/>
-      <c r="C394" s="10"/>
-      <c r="D394" s="10"/>
-      <c r="E394" s="10"/>
-      <c r="F394" s="10"/>
-      <c r="G394" s="10"/>
-      <c r="H394" s="10"/>
-      <c r="I394" s="10"/>
-      <c r="J394" s="10"/>
-    </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A395" s="10"/>
-      <c r="B395" s="10"/>
-      <c r="C395" s="10"/>
-      <c r="D395" s="10"/>
-      <c r="E395" s="10"/>
-      <c r="F395" s="10"/>
-      <c r="G395" s="10"/>
-      <c r="H395" s="10"/>
-      <c r="I395" s="10"/>
-      <c r="J395" s="10"/>
-    </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A396" s="10"/>
-      <c r="B396" s="10"/>
-      <c r="C396" s="10"/>
-      <c r="D396" s="10"/>
-      <c r="E396" s="10"/>
-      <c r="F396" s="10"/>
-      <c r="G396" s="10"/>
-      <c r="H396" s="10"/>
-      <c r="I396" s="10"/>
-      <c r="J396" s="10"/>
-    </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A397" s="10"/>
-      <c r="B397" s="10"/>
-      <c r="C397" s="10"/>
-      <c r="D397" s="10"/>
-      <c r="E397" s="10"/>
-      <c r="F397" s="10"/>
-      <c r="G397" s="10"/>
-      <c r="H397" s="10"/>
-      <c r="I397" s="10"/>
-      <c r="J397" s="10"/>
-    </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A398" s="10"/>
-      <c r="B398" s="10"/>
-      <c r="C398" s="10"/>
-      <c r="D398" s="10"/>
-      <c r="E398" s="10"/>
-      <c r="F398" s="10"/>
-      <c r="G398" s="10"/>
-      <c r="H398" s="10"/>
-      <c r="I398" s="10"/>
-      <c r="J398" s="10"/>
-    </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A399" s="10"/>
-      <c r="B399" s="10"/>
-      <c r="C399" s="10"/>
-      <c r="D399" s="10"/>
-      <c r="E399" s="10"/>
-      <c r="F399" s="10"/>
-      <c r="G399" s="10"/>
-      <c r="H399" s="10"/>
-      <c r="I399" s="10"/>
-      <c r="J399" s="10"/>
-    </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A400" s="10"/>
-      <c r="B400" s="10"/>
-      <c r="C400" s="10"/>
-      <c r="D400" s="10"/>
-      <c r="E400" s="10"/>
-      <c r="F400" s="10"/>
-      <c r="G400" s="10"/>
-      <c r="H400" s="10"/>
-      <c r="I400" s="10"/>
-      <c r="J400" s="10"/>
-    </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A401" s="10"/>
-      <c r="B401" s="10"/>
-      <c r="C401" s="10"/>
-      <c r="D401" s="10"/>
-      <c r="E401" s="10"/>
-      <c r="F401" s="10"/>
-      <c r="G401" s="10"/>
-      <c r="H401" s="10"/>
-      <c r="I401" s="10"/>
-      <c r="J401" s="10"/>
-    </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A402" s="10"/>
-      <c r="B402" s="10"/>
-      <c r="C402" s="10"/>
-      <c r="D402" s="10"/>
-      <c r="E402" s="10"/>
-      <c r="F402" s="10"/>
-      <c r="G402" s="10"/>
-      <c r="H402" s="10"/>
-      <c r="I402" s="10"/>
-      <c r="J402" s="10"/>
-    </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A403" s="10"/>
-      <c r="B403" s="10"/>
-      <c r="C403" s="10"/>
-      <c r="D403" s="10"/>
-      <c r="E403" s="10"/>
-      <c r="F403" s="10"/>
-      <c r="G403" s="10"/>
-      <c r="H403" s="10"/>
-      <c r="I403" s="10"/>
-      <c r="J403" s="10"/>
-    </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A404" s="10"/>
-      <c r="B404" s="10"/>
-      <c r="C404" s="10"/>
-      <c r="D404" s="10"/>
-      <c r="E404" s="10"/>
-      <c r="F404" s="10"/>
-      <c r="G404" s="10"/>
-      <c r="H404" s="10"/>
-      <c r="I404" s="10"/>
-      <c r="J404" s="10"/>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A405" s="10"/>
-      <c r="B405" s="10"/>
-      <c r="C405" s="10"/>
-      <c r="D405" s="10"/>
-      <c r="E405" s="10"/>
-      <c r="F405" s="10"/>
-      <c r="G405" s="10"/>
-      <c r="H405" s="10"/>
-      <c r="I405" s="10"/>
-      <c r="J405" s="10"/>
-    </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A406" s="10"/>
-      <c r="B406" s="10"/>
-      <c r="C406" s="10"/>
-      <c r="D406" s="10"/>
-      <c r="E406" s="10"/>
-      <c r="F406" s="10"/>
-      <c r="G406" s="10"/>
-      <c r="H406" s="10"/>
-      <c r="I406" s="10"/>
-      <c r="J406" s="10"/>
-    </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A407" s="10"/>
-      <c r="B407" s="10"/>
-      <c r="C407" s="10"/>
-      <c r="D407" s="10"/>
-      <c r="E407" s="10"/>
-      <c r="F407" s="10"/>
-      <c r="G407" s="10"/>
-      <c r="H407" s="10"/>
-      <c r="I407" s="10"/>
-      <c r="J407" s="10"/>
-    </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A408" s="10"/>
-      <c r="B408" s="10"/>
-      <c r="C408" s="10"/>
-      <c r="D408" s="10"/>
-      <c r="E408" s="10"/>
-      <c r="F408" s="10"/>
-      <c r="G408" s="10"/>
-      <c r="H408" s="10"/>
-      <c r="I408" s="10"/>
-      <c r="J408" s="10"/>
-    </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A409" s="10"/>
-      <c r="B409" s="10"/>
-      <c r="C409" s="10"/>
-      <c r="D409" s="10"/>
-      <c r="E409" s="10"/>
-      <c r="F409" s="10"/>
-      <c r="G409" s="10"/>
-      <c r="H409" s="10"/>
-      <c r="I409" s="10"/>
-      <c r="J409" s="10"/>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A410" s="10"/>
-      <c r="B410" s="10"/>
-      <c r="C410" s="10"/>
-      <c r="D410" s="10"/>
-      <c r="E410" s="10"/>
-      <c r="F410" s="10"/>
-      <c r="G410" s="10"/>
-      <c r="H410" s="10"/>
-      <c r="I410" s="10"/>
-      <c r="J410" s="10"/>
-    </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A411" s="10"/>
-      <c r="B411" s="10"/>
-      <c r="C411" s="10"/>
-      <c r="D411" s="10"/>
-      <c r="E411" s="10"/>
-      <c r="F411" s="10"/>
-      <c r="G411" s="10"/>
-      <c r="H411" s="10"/>
-      <c r="I411" s="10"/>
-      <c r="J411" s="10"/>
-    </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A412" s="10"/>
-      <c r="B412" s="10"/>
-      <c r="C412" s="10"/>
-      <c r="D412" s="10"/>
-      <c r="E412" s="10"/>
-      <c r="F412" s="10"/>
-      <c r="G412" s="10"/>
-      <c r="H412" s="10"/>
-      <c r="I412" s="10"/>
-      <c r="J412" s="10"/>
-    </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A413" s="10"/>
-      <c r="B413" s="10"/>
-      <c r="C413" s="10"/>
-      <c r="D413" s="10"/>
-      <c r="E413" s="10"/>
-      <c r="F413" s="10"/>
-      <c r="G413" s="10"/>
-      <c r="H413" s="10"/>
-      <c r="I413" s="10"/>
-      <c r="J413" s="10"/>
-    </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A414" s="10"/>
-      <c r="B414" s="10"/>
-      <c r="C414" s="10"/>
-      <c r="D414" s="10"/>
-      <c r="E414" s="10"/>
-      <c r="F414" s="10"/>
-      <c r="G414" s="10"/>
-      <c r="H414" s="10"/>
-      <c r="I414" s="10"/>
-      <c r="J414" s="10"/>
-    </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A415" s="10"/>
-      <c r="B415" s="10"/>
-      <c r="C415" s="10"/>
-      <c r="D415" s="10"/>
-      <c r="E415" s="10"/>
-      <c r="F415" s="10"/>
-      <c r="G415" s="10"/>
-      <c r="H415" s="10"/>
-      <c r="I415" s="10"/>
-      <c r="J415" s="10"/>
-    </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A416" s="10"/>
-      <c r="B416" s="10"/>
-      <c r="C416" s="10"/>
-      <c r="D416" s="10"/>
-      <c r="E416" s="10"/>
-      <c r="F416" s="10"/>
-      <c r="G416" s="10"/>
-      <c r="H416" s="10"/>
-      <c r="I416" s="10"/>
-      <c r="J416" s="10"/>
-    </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A417" s="10"/>
-      <c r="B417" s="10"/>
-      <c r="C417" s="10"/>
-      <c r="D417" s="10"/>
-      <c r="E417" s="10"/>
-      <c r="F417" s="10"/>
-      <c r="G417" s="10"/>
-      <c r="H417" s="10"/>
-      <c r="I417" s="10"/>
-      <c r="J417" s="10"/>
-    </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A418" s="10"/>
-      <c r="B418" s="10"/>
-      <c r="C418" s="10"/>
-      <c r="D418" s="10"/>
-      <c r="E418" s="10"/>
-      <c r="F418" s="10"/>
-      <c r="G418" s="10"/>
-      <c r="H418" s="10"/>
-      <c r="I418" s="10"/>
-      <c r="J418" s="10"/>
-    </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A419" s="10"/>
-      <c r="B419" s="10"/>
-      <c r="C419" s="10"/>
-      <c r="D419" s="10"/>
-      <c r="E419" s="10"/>
-      <c r="F419" s="10"/>
-      <c r="G419" s="10"/>
-      <c r="H419" s="10"/>
-      <c r="I419" s="10"/>
-      <c r="J419" s="10"/>
-    </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A420" s="10"/>
-      <c r="B420" s="10"/>
-      <c r="C420" s="10"/>
-      <c r="D420" s="10"/>
-      <c r="E420" s="10"/>
-      <c r="F420" s="10"/>
-      <c r="G420" s="10"/>
-      <c r="H420" s="10"/>
-      <c r="I420" s="10"/>
-      <c r="J420" s="10"/>
-    </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A421" s="10"/>
-      <c r="B421" s="10"/>
-      <c r="C421" s="10"/>
-      <c r="D421" s="10"/>
-      <c r="E421" s="10"/>
-      <c r="F421" s="10"/>
-      <c r="G421" s="10"/>
-      <c r="H421" s="10"/>
-      <c r="I421" s="10"/>
-      <c r="J421" s="10"/>
-    </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A422" s="10"/>
-      <c r="B422" s="10"/>
-      <c r="C422" s="10"/>
-      <c r="D422" s="10"/>
-      <c r="E422" s="10"/>
-      <c r="F422" s="10"/>
-      <c r="G422" s="10"/>
-      <c r="H422" s="10"/>
-      <c r="I422" s="10"/>
-      <c r="J422" s="10"/>
-    </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A423" s="10"/>
-      <c r="B423" s="10"/>
-      <c r="C423" s="10"/>
-      <c r="D423" s="10"/>
-      <c r="E423" s="10"/>
-      <c r="F423" s="10"/>
-      <c r="G423" s="10"/>
-      <c r="H423" s="10"/>
-      <c r="I423" s="10"/>
-      <c r="J423" s="10"/>
-    </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A424" s="10"/>
-      <c r="B424" s="10"/>
-      <c r="C424" s="10"/>
-      <c r="D424" s="10"/>
-      <c r="E424" s="10"/>
-      <c r="F424" s="10"/>
-      <c r="G424" s="10"/>
-      <c r="H424" s="10"/>
-      <c r="I424" s="10"/>
-      <c r="J424" s="10"/>
-    </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A425" s="10"/>
-      <c r="B425" s="10"/>
-      <c r="C425" s="10"/>
-      <c r="D425" s="10"/>
-      <c r="E425" s="10"/>
-      <c r="F425" s="10"/>
-      <c r="G425" s="10"/>
-      <c r="H425" s="10"/>
-      <c r="I425" s="10"/>
-      <c r="J425" s="10"/>
-    </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A426" s="10"/>
-      <c r="B426" s="10"/>
-      <c r="C426" s="10"/>
-      <c r="D426" s="10"/>
-      <c r="E426" s="10"/>
-      <c r="F426" s="10"/>
-      <c r="G426" s="10"/>
-      <c r="H426" s="10"/>
-      <c r="I426" s="10"/>
-      <c r="J426" s="10"/>
-    </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A427" s="10"/>
-      <c r="B427" s="10"/>
-      <c r="C427" s="10"/>
-      <c r="D427" s="10"/>
-      <c r="E427" s="10"/>
-      <c r="F427" s="10"/>
-      <c r="G427" s="10"/>
-      <c r="H427" s="10"/>
-      <c r="I427" s="10"/>
-      <c r="J427" s="10"/>
-    </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A428" s="10"/>
-      <c r="B428" s="10"/>
-      <c r="C428" s="10"/>
-      <c r="D428" s="10"/>
-      <c r="E428" s="10"/>
-      <c r="F428" s="10"/>
-      <c r="G428" s="10"/>
-      <c r="H428" s="10"/>
-      <c r="I428" s="10"/>
-      <c r="J428" s="10"/>
-    </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A429" s="10"/>
-      <c r="B429" s="10"/>
-      <c r="C429" s="10"/>
-      <c r="D429" s="10"/>
-      <c r="E429" s="10"/>
-      <c r="F429" s="10"/>
-      <c r="G429" s="10"/>
-      <c r="H429" s="10"/>
-      <c r="I429" s="10"/>
-      <c r="J429" s="10"/>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A430" s="10"/>
-      <c r="B430" s="10"/>
-      <c r="C430" s="10"/>
-      <c r="D430" s="10"/>
-      <c r="E430" s="10"/>
-      <c r="F430" s="10"/>
-      <c r="G430" s="10"/>
-      <c r="H430" s="10"/>
-      <c r="I430" s="10"/>
-      <c r="J430" s="10"/>
-    </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A431" s="10"/>
-      <c r="B431" s="10"/>
-      <c r="C431" s="10"/>
-      <c r="D431" s="10"/>
-      <c r="E431" s="10"/>
-      <c r="F431" s="10"/>
-      <c r="G431" s="10"/>
-      <c r="H431" s="10"/>
-      <c r="I431" s="10"/>
-      <c r="J431" s="10"/>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A432" s="10"/>
-      <c r="B432" s="10"/>
-      <c r="C432" s="10"/>
-      <c r="D432" s="10"/>
-      <c r="E432" s="10"/>
-      <c r="F432" s="10"/>
-      <c r="G432" s="10"/>
-      <c r="H432" s="10"/>
-      <c r="I432" s="10"/>
-      <c r="J432" s="10"/>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A433" s="10"/>
-      <c r="B433" s="10"/>
-      <c r="C433" s="10"/>
-      <c r="D433" s="10"/>
-      <c r="E433" s="10"/>
-      <c r="F433" s="10"/>
-      <c r="G433" s="10"/>
-      <c r="H433" s="10"/>
-      <c r="I433" s="10"/>
-      <c r="J433" s="10"/>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A434" s="10"/>
-      <c r="B434" s="10"/>
-      <c r="C434" s="10"/>
-      <c r="D434" s="10"/>
-      <c r="E434" s="10"/>
-      <c r="F434" s="10"/>
-      <c r="G434" s="10"/>
-      <c r="H434" s="10"/>
-      <c r="I434" s="10"/>
-      <c r="J434" s="10"/>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A435" s="10"/>
-      <c r="B435" s="10"/>
-      <c r="C435" s="10"/>
-      <c r="D435" s="10"/>
-      <c r="E435" s="10"/>
-      <c r="F435" s="10"/>
-      <c r="G435" s="10"/>
-      <c r="H435" s="10"/>
-      <c r="I435" s="10"/>
-      <c r="J435" s="10"/>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A436" s="10"/>
-      <c r="B436" s="10"/>
-      <c r="C436" s="10"/>
-      <c r="D436" s="10"/>
-      <c r="E436" s="10"/>
-      <c r="F436" s="10"/>
-      <c r="G436" s="10"/>
-      <c r="H436" s="10"/>
-      <c r="I436" s="10"/>
-      <c r="J436" s="10"/>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A437" s="10"/>
-      <c r="B437" s="10"/>
-      <c r="C437" s="10"/>
-      <c r="D437" s="10"/>
-      <c r="E437" s="10"/>
-      <c r="F437" s="10"/>
-      <c r="G437" s="10"/>
-      <c r="H437" s="10"/>
-      <c r="I437" s="10"/>
-      <c r="J437" s="10"/>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A438" s="10"/>
-      <c r="B438" s="10"/>
-      <c r="C438" s="10"/>
-      <c r="D438" s="10"/>
-      <c r="E438" s="10"/>
-      <c r="F438" s="10"/>
-      <c r="G438" s="10"/>
-      <c r="H438" s="10"/>
-      <c r="I438" s="10"/>
-      <c r="J438" s="10"/>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A439" s="10"/>
-      <c r="B439" s="10"/>
-      <c r="C439" s="10"/>
-      <c r="D439" s="10"/>
-      <c r="E439" s="10"/>
-      <c r="F439" s="10"/>
-      <c r="G439" s="10"/>
-      <c r="H439" s="10"/>
-      <c r="I439" s="10"/>
-      <c r="J439" s="10"/>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A440" s="10"/>
-      <c r="B440" s="10"/>
-      <c r="C440" s="10"/>
-      <c r="D440" s="10"/>
-      <c r="E440" s="10"/>
-      <c r="F440" s="10"/>
-      <c r="G440" s="10"/>
-      <c r="H440" s="10"/>
-      <c r="I440" s="10"/>
-      <c r="J440" s="10"/>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A441" s="10"/>
-      <c r="B441" s="10"/>
-      <c r="C441" s="10"/>
-      <c r="D441" s="10"/>
-      <c r="E441" s="10"/>
-      <c r="F441" s="10"/>
-      <c r="G441" s="10"/>
-      <c r="H441" s="10"/>
-      <c r="I441" s="10"/>
-      <c r="J441" s="10"/>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A442" s="10"/>
-      <c r="B442" s="10"/>
-      <c r="C442" s="10"/>
-      <c r="D442" s="10"/>
-      <c r="E442" s="10"/>
-      <c r="F442" s="10"/>
-      <c r="G442" s="10"/>
-      <c r="H442" s="10"/>
-      <c r="I442" s="10"/>
-      <c r="J442" s="10"/>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A443" s="10"/>
-      <c r="B443" s="10"/>
-      <c r="C443" s="10"/>
-      <c r="D443" s="10"/>
-      <c r="E443" s="10"/>
-      <c r="F443" s="10"/>
-      <c r="G443" s="10"/>
-      <c r="H443" s="10"/>
-      <c r="I443" s="10"/>
-      <c r="J443" s="10"/>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A444" s="10"/>
-      <c r="B444" s="10"/>
-      <c r="C444" s="10"/>
-      <c r="D444" s="10"/>
-      <c r="E444" s="10"/>
-      <c r="F444" s="10"/>
-      <c r="G444" s="10"/>
-      <c r="H444" s="10"/>
-      <c r="I444" s="10"/>
-      <c r="J444" s="10"/>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A445" s="10"/>
-      <c r="B445" s="10"/>
-      <c r="C445" s="10"/>
-      <c r="D445" s="10"/>
-      <c r="E445" s="10"/>
-      <c r="F445" s="10"/>
-      <c r="G445" s="10"/>
-      <c r="H445" s="10"/>
-      <c r="I445" s="10"/>
-      <c r="J445" s="10"/>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A446" s="10"/>
-      <c r="B446" s="10"/>
-      <c r="C446" s="10"/>
-      <c r="D446" s="10"/>
-      <c r="E446" s="10"/>
-      <c r="F446" s="10"/>
-      <c r="G446" s="10"/>
-      <c r="H446" s="10"/>
-      <c r="I446" s="10"/>
-      <c r="J446" s="10"/>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A447" s="10"/>
-      <c r="B447" s="10"/>
-      <c r="C447" s="10"/>
-      <c r="D447" s="10"/>
-      <c r="E447" s="10"/>
-      <c r="F447" s="10"/>
-      <c r="G447" s="10"/>
-      <c r="H447" s="10"/>
-      <c r="I447" s="10"/>
-      <c r="J447" s="10"/>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A448" s="10"/>
-      <c r="B448" s="10"/>
-      <c r="C448" s="10"/>
-      <c r="D448" s="10"/>
-      <c r="E448" s="10"/>
-      <c r="F448" s="10"/>
-      <c r="G448" s="10"/>
-      <c r="H448" s="10"/>
-      <c r="I448" s="10"/>
-      <c r="J448" s="10"/>
-    </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A449" s="10"/>
-      <c r="B449" s="10"/>
-      <c r="C449" s="10"/>
-      <c r="D449" s="10"/>
-      <c r="E449" s="10"/>
-      <c r="F449" s="10"/>
-      <c r="G449" s="10"/>
-      <c r="H449" s="10"/>
-      <c r="I449" s="10"/>
-      <c r="J449" s="10"/>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A450" s="10"/>
-      <c r="B450" s="10"/>
-      <c r="C450" s="10"/>
-      <c r="D450" s="10"/>
-      <c r="E450" s="10"/>
-      <c r="F450" s="10"/>
-      <c r="G450" s="10"/>
-      <c r="H450" s="10"/>
-      <c r="I450" s="10"/>
-      <c r="J450" s="10"/>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A451" s="10"/>
-      <c r="B451" s="10"/>
-      <c r="C451" s="10"/>
-      <c r="D451" s="10"/>
-      <c r="E451" s="10"/>
-      <c r="F451" s="10"/>
-      <c r="G451" s="10"/>
-      <c r="H451" s="10"/>
-      <c r="I451" s="10"/>
-      <c r="J451" s="10"/>
-    </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A452" s="10"/>
-      <c r="B452" s="10"/>
-      <c r="C452" s="10"/>
-      <c r="D452" s="10"/>
-      <c r="E452" s="10"/>
-      <c r="F452" s="10"/>
-      <c r="G452" s="10"/>
-      <c r="H452" s="10"/>
-      <c r="I452" s="10"/>
-      <c r="J452" s="10"/>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A453" s="10"/>
-      <c r="B453" s="10"/>
-      <c r="C453" s="10"/>
-      <c r="D453" s="10"/>
-      <c r="E453" s="10"/>
-      <c r="F453" s="10"/>
-      <c r="G453" s="10"/>
-      <c r="H453" s="10"/>
-      <c r="I453" s="10"/>
-      <c r="J453" s="10"/>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A454" s="10"/>
-      <c r="B454" s="10"/>
-      <c r="C454" s="10"/>
-      <c r="D454" s="10"/>
-      <c r="E454" s="10"/>
-      <c r="F454" s="10"/>
-      <c r="G454" s="10"/>
-      <c r="H454" s="10"/>
-      <c r="I454" s="10"/>
-      <c r="J454" s="10"/>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A455" s="10"/>
-      <c r="B455" s="10"/>
-      <c r="C455" s="10"/>
-      <c r="D455" s="10"/>
-      <c r="E455" s="10"/>
-      <c r="F455" s="10"/>
-      <c r="G455" s="10"/>
-      <c r="H455" s="10"/>
-      <c r="I455" s="10"/>
-      <c r="J455" s="10"/>
-    </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A456" s="10"/>
-      <c r="B456" s="10"/>
-      <c r="C456" s="10"/>
-      <c r="D456" s="10"/>
-      <c r="E456" s="10"/>
-      <c r="F456" s="10"/>
-      <c r="G456" s="10"/>
-      <c r="H456" s="10"/>
-      <c r="I456" s="10"/>
-      <c r="J456" s="10"/>
-    </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A457" s="10"/>
-      <c r="B457" s="10"/>
-      <c r="C457" s="10"/>
-      <c r="D457" s="10"/>
-      <c r="E457" s="10"/>
-      <c r="F457" s="10"/>
-      <c r="G457" s="10"/>
-      <c r="H457" s="10"/>
-      <c r="I457" s="10"/>
-      <c r="J457" s="10"/>
-    </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A458" s="10"/>
-      <c r="B458" s="10"/>
-      <c r="C458" s="10"/>
-      <c r="D458" s="10"/>
-      <c r="E458" s="10"/>
-      <c r="F458" s="10"/>
-      <c r="G458" s="10"/>
-      <c r="H458" s="10"/>
-      <c r="I458" s="10"/>
-      <c r="J458" s="10"/>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A459" s="10"/>
-      <c r="B459" s="10"/>
-      <c r="C459" s="10"/>
-      <c r="D459" s="10"/>
-      <c r="E459" s="10"/>
-      <c r="F459" s="10"/>
-      <c r="G459" s="10"/>
-      <c r="H459" s="10"/>
-      <c r="I459" s="10"/>
-      <c r="J459" s="10"/>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A460" s="10"/>
-      <c r="B460" s="10"/>
-      <c r="C460" s="10"/>
-      <c r="D460" s="10"/>
-      <c r="E460" s="10"/>
-      <c r="F460" s="10"/>
-      <c r="G460" s="10"/>
-      <c r="H460" s="10"/>
-      <c r="I460" s="10"/>
-      <c r="J460" s="10"/>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A461" s="10"/>
-      <c r="B461" s="10"/>
-      <c r="C461" s="10"/>
-      <c r="D461" s="10"/>
-      <c r="E461" s="10"/>
-      <c r="F461" s="10"/>
-      <c r="G461" s="10"/>
-      <c r="H461" s="10"/>
-      <c r="I461" s="10"/>
-      <c r="J461" s="10"/>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A462" s="10"/>
-      <c r="B462" s="10"/>
-      <c r="C462" s="10"/>
-      <c r="D462" s="10"/>
-      <c r="E462" s="10"/>
-      <c r="F462" s="10"/>
-      <c r="G462" s="10"/>
-      <c r="H462" s="10"/>
-      <c r="I462" s="10"/>
-      <c r="J462" s="10"/>
-    </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A463" s="10"/>
-      <c r="B463" s="10"/>
-      <c r="C463" s="10"/>
-      <c r="D463" s="10"/>
-      <c r="E463" s="10"/>
-      <c r="F463" s="10"/>
-      <c r="G463" s="10"/>
-      <c r="H463" s="10"/>
-      <c r="I463" s="10"/>
-      <c r="J463" s="10"/>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A464" s="10"/>
-      <c r="B464" s="10"/>
-      <c r="C464" s="10"/>
-      <c r="D464" s="10"/>
-      <c r="E464" s="10"/>
-      <c r="F464" s="10"/>
-      <c r="G464" s="10"/>
-      <c r="H464" s="10"/>
-      <c r="I464" s="10"/>
-      <c r="J464" s="10"/>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A465" s="10"/>
-      <c r="B465" s="10"/>
-      <c r="C465" s="10"/>
-      <c r="D465" s="10"/>
-      <c r="E465" s="10"/>
-      <c r="F465" s="10"/>
-      <c r="G465" s="10"/>
-      <c r="H465" s="10"/>
-      <c r="I465" s="10"/>
-      <c r="J465" s="10"/>
-    </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A466" s="10"/>
-      <c r="B466" s="10"/>
-      <c r="C466" s="10"/>
-      <c r="D466" s="10"/>
-      <c r="E466" s="10"/>
-      <c r="F466" s="10"/>
-      <c r="G466" s="10"/>
-      <c r="H466" s="10"/>
-      <c r="I466" s="10"/>
-      <c r="J466" s="10"/>
-    </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A467" s="10"/>
-      <c r="B467" s="10"/>
-      <c r="C467" s="10"/>
-      <c r="D467" s="10"/>
-      <c r="E467" s="10"/>
-      <c r="F467" s="10"/>
-      <c r="G467" s="10"/>
-      <c r="H467" s="10"/>
-      <c r="I467" s="10"/>
-      <c r="J467" s="10"/>
-    </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A468" s="10"/>
-      <c r="B468" s="10"/>
-      <c r="C468" s="10"/>
-      <c r="D468" s="10"/>
-      <c r="E468" s="10"/>
-      <c r="F468" s="10"/>
-      <c r="G468" s="10"/>
-      <c r="H468" s="10"/>
-      <c r="I468" s="10"/>
-      <c r="J468" s="10"/>
-    </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A469" s="10"/>
-      <c r="B469" s="10"/>
-      <c r="C469" s="10"/>
-      <c r="D469" s="10"/>
-      <c r="E469" s="10"/>
-      <c r="F469" s="10"/>
-      <c r="G469" s="10"/>
-      <c r="H469" s="10"/>
-      <c r="I469" s="10"/>
-      <c r="J469" s="10"/>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A470" s="10"/>
-      <c r="B470" s="10"/>
-      <c r="C470" s="10"/>
-      <c r="D470" s="10"/>
-      <c r="E470" s="10"/>
-      <c r="F470" s="10"/>
-      <c r="G470" s="10"/>
-      <c r="H470" s="10"/>
-      <c r="I470" s="10"/>
-      <c r="J470" s="10"/>
-    </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A471" s="10"/>
-      <c r="B471" s="10"/>
-      <c r="C471" s="10"/>
-      <c r="D471" s="10"/>
-      <c r="E471" s="10"/>
-      <c r="F471" s="10"/>
-      <c r="G471" s="10"/>
-      <c r="H471" s="10"/>
-      <c r="I471" s="10"/>
-      <c r="J471" s="10"/>
-    </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A472" s="10"/>
-      <c r="B472" s="10"/>
-      <c r="C472" s="10"/>
-      <c r="D472" s="10"/>
-      <c r="E472" s="10"/>
-      <c r="F472" s="10"/>
-      <c r="G472" s="10"/>
-      <c r="H472" s="10"/>
-      <c r="I472" s="10"/>
-      <c r="J472" s="10"/>
-    </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A473" s="10"/>
-      <c r="B473" s="10"/>
-      <c r="C473" s="10"/>
-      <c r="D473" s="10"/>
-      <c r="E473" s="10"/>
-      <c r="F473" s="10"/>
-      <c r="G473" s="10"/>
-      <c r="H473" s="10"/>
-      <c r="I473" s="10"/>
-      <c r="J473" s="10"/>
-    </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A474" s="10"/>
-      <c r="B474" s="10"/>
-      <c r="C474" s="10"/>
-      <c r="D474" s="10"/>
-      <c r="E474" s="10"/>
-      <c r="F474" s="10"/>
-      <c r="G474" s="10"/>
-      <c r="H474" s="10"/>
-      <c r="I474" s="10"/>
-      <c r="J474" s="10"/>
-    </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A475" s="10"/>
-      <c r="B475" s="10"/>
-      <c r="C475" s="10"/>
-      <c r="D475" s="10"/>
-      <c r="E475" s="10"/>
-      <c r="F475" s="10"/>
-      <c r="G475" s="10"/>
-      <c r="H475" s="10"/>
-      <c r="I475" s="10"/>
-      <c r="J475" s="10"/>
-    </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A476" s="10"/>
-      <c r="B476" s="10"/>
-      <c r="C476" s="10"/>
-      <c r="D476" s="10"/>
-      <c r="E476" s="10"/>
-      <c r="F476" s="10"/>
-      <c r="G476" s="10"/>
-      <c r="H476" s="10"/>
-      <c r="I476" s="10"/>
-      <c r="J476" s="10"/>
-    </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A477" s="10"/>
-      <c r="B477" s="10"/>
-      <c r="C477" s="10"/>
-      <c r="D477" s="10"/>
-      <c r="E477" s="10"/>
-      <c r="F477" s="10"/>
-      <c r="G477" s="10"/>
-      <c r="H477" s="10"/>
-      <c r="I477" s="10"/>
-      <c r="J477" s="10"/>
-    </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A478" s="10"/>
-      <c r="B478" s="10"/>
-      <c r="C478" s="10"/>
-      <c r="D478" s="10"/>
-      <c r="E478" s="10"/>
-      <c r="F478" s="10"/>
-      <c r="G478" s="10"/>
-      <c r="H478" s="10"/>
-      <c r="I478" s="10"/>
-      <c r="J478" s="10"/>
-    </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A479" s="10"/>
-      <c r="B479" s="10"/>
-      <c r="C479" s="10"/>
-      <c r="D479" s="10"/>
-      <c r="E479" s="10"/>
-      <c r="F479" s="10"/>
-      <c r="G479" s="10"/>
-      <c r="H479" s="10"/>
-      <c r="I479" s="10"/>
-      <c r="J479" s="10"/>
-    </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A480" s="10"/>
-      <c r="B480" s="10"/>
-      <c r="C480" s="10"/>
-      <c r="D480" s="10"/>
-      <c r="E480" s="10"/>
-      <c r="F480" s="10"/>
-      <c r="G480" s="10"/>
-      <c r="H480" s="10"/>
-      <c r="I480" s="10"/>
-      <c r="J480" s="10"/>
-    </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A481" s="10"/>
-      <c r="B481" s="10"/>
-      <c r="C481" s="10"/>
-      <c r="D481" s="10"/>
-      <c r="E481" s="10"/>
-      <c r="F481" s="10"/>
-      <c r="G481" s="10"/>
-      <c r="H481" s="10"/>
-      <c r="I481" s="10"/>
-      <c r="J481" s="10"/>
-    </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A482" s="15"/>
-      <c r="B482" s="15"/>
-      <c r="C482" s="15"/>
-      <c r="D482" s="15"/>
-      <c r="E482" s="15"/>
-      <c r="F482" s="15"/>
-      <c r="G482" s="15"/>
-      <c r="H482" s="15"/>
-      <c r="I482" s="15"/>
-      <c r="J482" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
